--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_64ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_64ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -5177,28 +5177,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3618.217165597124</v>
+        <v>4009.689685573497</v>
       </c>
       <c r="AB2" t="n">
-        <v>4950.604350445883</v>
+        <v>5486.234322826275</v>
       </c>
       <c r="AC2" t="n">
-        <v>4478.125619455987</v>
+        <v>4962.635819033761</v>
       </c>
       <c r="AD2" t="n">
-        <v>3618217.165597124</v>
+        <v>4009689.685573497</v>
       </c>
       <c r="AE2" t="n">
-        <v>4950604.350445883</v>
+        <v>5486234.322826276</v>
       </c>
       <c r="AF2" t="n">
         <v>2.017823786350835e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>78</v>
+        <v>77.78645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4478125.619455988</v>
+        <v>4962635.819033761</v>
       </c>
     </row>
     <row r="3">
@@ -5283,28 +5283,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1808.371590536499</v>
+        <v>2052.983137068722</v>
       </c>
       <c r="AB3" t="n">
-        <v>2474.293789896042</v>
+        <v>2808.982099361237</v>
       </c>
       <c r="AC3" t="n">
-        <v>2238.150663281508</v>
+        <v>2540.896790229338</v>
       </c>
       <c r="AD3" t="n">
-        <v>1808371.590536499</v>
+        <v>2052983.137068722</v>
       </c>
       <c r="AE3" t="n">
-        <v>2474293.789896042</v>
+        <v>2808982.099361237</v>
       </c>
       <c r="AF3" t="n">
         <v>3.179097045472934e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.36848958333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>2238150.663281508</v>
+        <v>2540896.790229337</v>
       </c>
     </row>
     <row r="4">
@@ -5389,28 +5389,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1493.181286844075</v>
+        <v>1708.427269565253</v>
       </c>
       <c r="AB4" t="n">
-        <v>2043.036511169249</v>
+        <v>2337.54556071093</v>
       </c>
       <c r="AC4" t="n">
-        <v>1848.051973963008</v>
+        <v>2114.453493162478</v>
       </c>
       <c r="AD4" t="n">
-        <v>1493181.286844075</v>
+        <v>1708427.269565253</v>
       </c>
       <c r="AE4" t="n">
-        <v>2043036.511169249</v>
+        <v>2337545.56071093</v>
       </c>
       <c r="AF4" t="n">
         <v>3.623162925336522e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>44</v>
+        <v>43.3203125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1848051.973963008</v>
+        <v>2114453.493162478</v>
       </c>
     </row>
     <row r="5">
@@ -5495,28 +5495,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1355.397717329404</v>
+        <v>1560.922498587939</v>
       </c>
       <c r="AB5" t="n">
-        <v>1854.514952777195</v>
+        <v>2135.723025608547</v>
       </c>
       <c r="AC5" t="n">
-        <v>1677.522648512223</v>
+        <v>1931.892617550559</v>
       </c>
       <c r="AD5" t="n">
-        <v>1355397.717329405</v>
+        <v>1560922.498587939</v>
       </c>
       <c r="AE5" t="n">
-        <v>1854514.952777195</v>
+        <v>2135723.025608547</v>
       </c>
       <c r="AF5" t="n">
         <v>3.861348098683551e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>41</v>
+        <v>40.65104166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1677522.648512223</v>
+        <v>1931892.617550559</v>
       </c>
     </row>
     <row r="6">
@@ -5601,28 +5601,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1284.552781316738</v>
+        <v>1480.22172149722</v>
       </c>
       <c r="AB6" t="n">
-        <v>1757.581785866672</v>
+        <v>2025.304662126009</v>
       </c>
       <c r="AC6" t="n">
-        <v>1589.840647005085</v>
+        <v>1832.012427705649</v>
       </c>
       <c r="AD6" t="n">
-        <v>1284552.781316738</v>
+        <v>1480221.72149722</v>
       </c>
       <c r="AE6" t="n">
-        <v>1757581.785866672</v>
+        <v>2025304.662126009</v>
       </c>
       <c r="AF6" t="n">
         <v>4.007682511863354e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>40</v>
+        <v>39.16015625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1589840.647005085</v>
+        <v>1832012.427705649</v>
       </c>
     </row>
     <row r="7">
@@ -5707,28 +5707,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1233.774608283673</v>
+        <v>1419.689192612587</v>
       </c>
       <c r="AB7" t="n">
-        <v>1688.104849347942</v>
+        <v>1942.481385599357</v>
       </c>
       <c r="AC7" t="n">
-        <v>1526.99449179621</v>
+        <v>1757.093688447501</v>
       </c>
       <c r="AD7" t="n">
-        <v>1233774.608283673</v>
+        <v>1419689.192612587</v>
       </c>
       <c r="AE7" t="n">
-        <v>1688104.849347942</v>
+        <v>1942481.385599357</v>
       </c>
       <c r="AF7" t="n">
         <v>4.109176396457584e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>39</v>
+        <v>38.19661458333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1526994.49179621</v>
+        <v>1757093.688447501</v>
       </c>
     </row>
     <row r="8">
@@ -5813,28 +5813,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1195.451685077372</v>
+        <v>1381.433589213991</v>
       </c>
       <c r="AB8" t="n">
-        <v>1635.669735129032</v>
+        <v>1890.138381311288</v>
       </c>
       <c r="AC8" t="n">
-        <v>1479.563711285208</v>
+        <v>1709.746227024818</v>
       </c>
       <c r="AD8" t="n">
-        <v>1195451.685077372</v>
+        <v>1381433.589213991</v>
       </c>
       <c r="AE8" t="n">
-        <v>1635669.735129032</v>
+        <v>1890138.381311288</v>
       </c>
       <c r="AF8" t="n">
         <v>4.177642579889321e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>38</v>
+        <v>37.57161458333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1479563.711285208</v>
+        <v>1709746.227024818</v>
       </c>
     </row>
     <row r="9">
@@ -5919,28 +5919,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1172.185758275548</v>
+        <v>1358.066177185681</v>
       </c>
       <c r="AB9" t="n">
-        <v>1603.836267658527</v>
+        <v>1858.166057276693</v>
       </c>
       <c r="AC9" t="n">
-        <v>1450.768385271535</v>
+        <v>1680.825296722646</v>
       </c>
       <c r="AD9" t="n">
-        <v>1172185.758275548</v>
+        <v>1358066.177185681</v>
       </c>
       <c r="AE9" t="n">
-        <v>1603836.267658527</v>
+        <v>1858166.057276693</v>
       </c>
       <c r="AF9" t="n">
         <v>4.235742404562027e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>38</v>
+        <v>37.05729166666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>1450768.385271535</v>
+        <v>1680825.296722646</v>
       </c>
     </row>
     <row r="10">
@@ -6025,28 +6025,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1142.143662947218</v>
+        <v>1328.091401665056</v>
       </c>
       <c r="AB10" t="n">
-        <v>1562.731347466599</v>
+        <v>1817.153247015608</v>
       </c>
       <c r="AC10" t="n">
-        <v>1413.586460971608</v>
+        <v>1643.726691511038</v>
       </c>
       <c r="AD10" t="n">
-        <v>1142143.662947218</v>
+        <v>1328091.401665056</v>
       </c>
       <c r="AE10" t="n">
-        <v>1562731.347466599</v>
+        <v>1817153.247015608</v>
       </c>
       <c r="AF10" t="n">
         <v>4.282029401811652e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>37</v>
+        <v>36.65364583333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1413586.460971608</v>
+        <v>1643726.691511038</v>
       </c>
     </row>
     <row r="11">
@@ -6131,28 +6131,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1125.656253882759</v>
+        <v>1311.502507374112</v>
       </c>
       <c r="AB11" t="n">
-        <v>1540.172547011455</v>
+        <v>1794.455589996373</v>
       </c>
       <c r="AC11" t="n">
-        <v>1393.180640770427</v>
+        <v>1623.195267021357</v>
       </c>
       <c r="AD11" t="n">
-        <v>1125656.253882759</v>
+        <v>1311502.507374112</v>
       </c>
       <c r="AE11" t="n">
-        <v>1540172.547011455</v>
+        <v>1794455.589996374</v>
       </c>
       <c r="AF11" t="n">
         <v>4.315780337306171e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>37</v>
+        <v>36.3671875</v>
       </c>
       <c r="AH11" t="n">
-        <v>1393180.640770427</v>
+        <v>1623195.267021358</v>
       </c>
     </row>
     <row r="12">
@@ -6237,28 +6237,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1108.737461606543</v>
+        <v>1284.863524665109</v>
       </c>
       <c r="AB12" t="n">
-        <v>1517.023509014698</v>
+        <v>1758.006958624941</v>
       </c>
       <c r="AC12" t="n">
-        <v>1372.240914470202</v>
+        <v>1590.225241872039</v>
       </c>
       <c r="AD12" t="n">
-        <v>1108737.461606543</v>
+        <v>1284863.524665109</v>
       </c>
       <c r="AE12" t="n">
-        <v>1517023.509014698</v>
+        <v>1758006.958624941</v>
       </c>
       <c r="AF12" t="n">
         <v>4.346397257361911e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>37</v>
+        <v>36.11328125</v>
       </c>
       <c r="AH12" t="n">
-        <v>1372240.914470202</v>
+        <v>1590225.241872039</v>
       </c>
     </row>
     <row r="13">
@@ -6343,28 +6343,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1086.291707732042</v>
+        <v>1272.205281031099</v>
       </c>
       <c r="AB13" t="n">
-        <v>1486.312238326833</v>
+        <v>1740.687391242593</v>
       </c>
       <c r="AC13" t="n">
-        <v>1344.460684353247</v>
+        <v>1574.558629692497</v>
       </c>
       <c r="AD13" t="n">
-        <v>1086291.707732042</v>
+        <v>1272205.281031099</v>
       </c>
       <c r="AE13" t="n">
-        <v>1486312.238326833</v>
+        <v>1740687.391242593</v>
       </c>
       <c r="AF13" t="n">
         <v>4.368576443544024e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>36</v>
+        <v>35.92447916666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>1344460.684353247</v>
+        <v>1574558.629692497</v>
       </c>
     </row>
     <row r="14">
@@ -6449,28 +6449,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1071.92948057611</v>
+        <v>1257.843053875167</v>
       </c>
       <c r="AB14" t="n">
-        <v>1466.661205515343</v>
+        <v>1721.036358431104</v>
       </c>
       <c r="AC14" t="n">
-        <v>1326.685118532889</v>
+        <v>1556.783063872138</v>
       </c>
       <c r="AD14" t="n">
-        <v>1071929.48057611</v>
+        <v>1257843.053875167</v>
       </c>
       <c r="AE14" t="n">
-        <v>1466661.205515343</v>
+        <v>1721036.358431104</v>
       </c>
       <c r="AF14" t="n">
         <v>4.389550239172759e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>36</v>
+        <v>35.75520833333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>1326685.118532889</v>
+        <v>1556783.063872139</v>
       </c>
     </row>
     <row r="15">
@@ -6555,28 +6555,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1062.675995301583</v>
+        <v>1238.869378167853</v>
       </c>
       <c r="AB15" t="n">
-        <v>1454.000178727776</v>
+        <v>1695.075738268861</v>
       </c>
       <c r="AC15" t="n">
-        <v>1315.232442372064</v>
+        <v>1533.300088862221</v>
       </c>
       <c r="AD15" t="n">
-        <v>1062675.995301583</v>
+        <v>1238869.378167853</v>
       </c>
       <c r="AE15" t="n">
-        <v>1454000.178727776</v>
+        <v>1695075.738268861</v>
       </c>
       <c r="AF15" t="n">
         <v>4.405702472587993e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>36</v>
+        <v>35.625</v>
       </c>
       <c r="AH15" t="n">
-        <v>1315232.442372064</v>
+        <v>1533300.088862221</v>
       </c>
     </row>
     <row r="16">
@@ -6661,28 +6661,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1048.053435315886</v>
+        <v>1224.145332955671</v>
       </c>
       <c r="AB16" t="n">
-        <v>1433.992947053528</v>
+        <v>1674.929650030524</v>
       </c>
       <c r="AC16" t="n">
-        <v>1297.13467280848</v>
+        <v>1515.076715010138</v>
       </c>
       <c r="AD16" t="n">
-        <v>1048053.435315886</v>
+        <v>1224145.332955671</v>
       </c>
       <c r="AE16" t="n">
-        <v>1433992.947053528</v>
+        <v>1674929.650030524</v>
       </c>
       <c r="AF16" t="n">
         <v>4.424988721442004e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>36</v>
+        <v>35.46875</v>
       </c>
       <c r="AH16" t="n">
-        <v>1297134.67280848</v>
+        <v>1515076.715010138</v>
       </c>
     </row>
     <row r="17">
@@ -6767,28 +6767,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1037.402481691018</v>
+        <v>1213.494379330803</v>
       </c>
       <c r="AB17" t="n">
-        <v>1419.419842417073</v>
+        <v>1660.356545394068</v>
       </c>
       <c r="AC17" t="n">
-        <v>1283.952404825048</v>
+        <v>1501.894447026705</v>
       </c>
       <c r="AD17" t="n">
-        <v>1037402.481691018</v>
+        <v>1213494.379330803</v>
       </c>
       <c r="AE17" t="n">
-        <v>1419419.842417073</v>
+        <v>1660356.545394068</v>
       </c>
       <c r="AF17" t="n">
         <v>4.43704262697576e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>36</v>
+        <v>35.37109375</v>
       </c>
       <c r="AH17" t="n">
-        <v>1283952.404825048</v>
+        <v>1501894.447026705</v>
       </c>
     </row>
     <row r="18">
@@ -6873,28 +6873,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1026.239692442597</v>
+        <v>1202.331590082382</v>
       </c>
       <c r="AB18" t="n">
-        <v>1404.146421699878</v>
+        <v>1645.083124676874</v>
       </c>
       <c r="AC18" t="n">
-        <v>1270.136657944722</v>
+        <v>1488.078700146379</v>
       </c>
       <c r="AD18" t="n">
-        <v>1026239.692442597</v>
+        <v>1202331.590082382</v>
       </c>
       <c r="AE18" t="n">
-        <v>1404146.421699878</v>
+        <v>1645083.124676874</v>
       </c>
       <c r="AF18" t="n">
         <v>4.448373298177491e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>36</v>
+        <v>35.27994791666666</v>
       </c>
       <c r="AH18" t="n">
-        <v>1270136.657944722</v>
+        <v>1488078.700146379</v>
       </c>
     </row>
     <row r="19">
@@ -6979,28 +6979,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1026.9811344689</v>
+        <v>1203.073032108685</v>
       </c>
       <c r="AB19" t="n">
-        <v>1405.16089539038</v>
+        <v>1646.097598367375</v>
       </c>
       <c r="AC19" t="n">
-        <v>1271.054311690024</v>
+        <v>1488.996353891682</v>
       </c>
       <c r="AD19" t="n">
-        <v>1026981.1344689</v>
+        <v>1203073.032108685</v>
       </c>
       <c r="AE19" t="n">
-        <v>1405160.89539038</v>
+        <v>1646097.598367375</v>
       </c>
       <c r="AF19" t="n">
         <v>4.450060844952217e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>36</v>
+        <v>35.2734375</v>
       </c>
       <c r="AH19" t="n">
-        <v>1271054.311690024</v>
+        <v>1488996.353891682</v>
       </c>
     </row>
     <row r="20">
@@ -7085,28 +7085,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1028.84448382663</v>
+        <v>1204.936381466415</v>
       </c>
       <c r="AB20" t="n">
-        <v>1407.710412186798</v>
+        <v>1648.647115163793</v>
       </c>
       <c r="AC20" t="n">
-        <v>1273.360506181662</v>
+        <v>1491.302548383319</v>
       </c>
       <c r="AD20" t="n">
-        <v>1028844.48382663</v>
+        <v>1204936.381466415</v>
       </c>
       <c r="AE20" t="n">
-        <v>1407710.412186798</v>
+        <v>1648647.115163793</v>
       </c>
       <c r="AF20" t="n">
         <v>4.449337610620192e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>36</v>
+        <v>35.2734375</v>
       </c>
       <c r="AH20" t="n">
-        <v>1273360.506181662</v>
+        <v>1491302.548383319</v>
       </c>
     </row>
     <row r="21">
@@ -7191,28 +7191,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1031.689458689052</v>
+        <v>1207.781356328837</v>
       </c>
       <c r="AB21" t="n">
-        <v>1411.603032304996</v>
+        <v>1652.539735281991</v>
       </c>
       <c r="AC21" t="n">
-        <v>1276.881620099105</v>
+        <v>1494.823662300763</v>
       </c>
       <c r="AD21" t="n">
-        <v>1031689.458689052</v>
+        <v>1207781.356328837</v>
       </c>
       <c r="AE21" t="n">
-        <v>1411603.032304996</v>
+        <v>1652539.735281991</v>
       </c>
       <c r="AF21" t="n">
         <v>4.449096532509517e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>36</v>
+        <v>35.27994791666666</v>
       </c>
       <c r="AH21" t="n">
-        <v>1276881.620099105</v>
+        <v>1494823.662300763</v>
       </c>
     </row>
   </sheetData>
@@ -7488,28 +7488,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2589.979938170884</v>
+        <v>2919.050278436999</v>
       </c>
       <c r="AB2" t="n">
-        <v>3543.724813256282</v>
+        <v>3993.97337036722</v>
       </c>
       <c r="AC2" t="n">
-        <v>3205.516690727982</v>
+        <v>3612.794157476053</v>
       </c>
       <c r="AD2" t="n">
-        <v>2589979.938170884</v>
+        <v>2919050.278436999</v>
       </c>
       <c r="AE2" t="n">
-        <v>3543724.813256282</v>
+        <v>3993973.370367221</v>
       </c>
       <c r="AF2" t="n">
         <v>2.620164835911254e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>66</v>
+        <v>65.546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>3205516.690727982</v>
+        <v>3612794.157476053</v>
       </c>
     </row>
     <row r="3">
@@ -7594,28 +7594,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1494.185354477717</v>
+        <v>1726.45020324275</v>
       </c>
       <c r="AB3" t="n">
-        <v>2044.410320801936</v>
+        <v>2362.205333684199</v>
       </c>
       <c r="AC3" t="n">
-        <v>1849.294669132506</v>
+        <v>2136.759772013387</v>
       </c>
       <c r="AD3" t="n">
-        <v>1494185.354477717</v>
+        <v>1726450.20324275</v>
       </c>
       <c r="AE3" t="n">
-        <v>2044410.320801936</v>
+        <v>2362205.333684199</v>
       </c>
       <c r="AF3" t="n">
         <v>3.758128301341754e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>45.69661458333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1849294.669132506</v>
+        <v>2136759.772013387</v>
       </c>
     </row>
     <row r="4">
@@ -7700,28 +7700,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1278.83051377173</v>
+        <v>1482.020560697515</v>
       </c>
       <c r="AB4" t="n">
-        <v>1749.752326962965</v>
+        <v>2027.765913279039</v>
       </c>
       <c r="AC4" t="n">
-        <v>1582.758420670434</v>
+        <v>1834.238780503021</v>
       </c>
       <c r="AD4" t="n">
-        <v>1278830.51377173</v>
+        <v>1482020.560697515</v>
       </c>
       <c r="AE4" t="n">
-        <v>1749752.326962965</v>
+        <v>2027765.913279039</v>
       </c>
       <c r="AF4" t="n">
         <v>4.180182437801837e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>42</v>
+        <v>41.08072916666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1582758.420670434</v>
+        <v>1834238.780503021</v>
       </c>
     </row>
     <row r="5">
@@ -7806,28 +7806,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1181.235975968036</v>
+        <v>1374.745473743714</v>
       </c>
       <c r="AB5" t="n">
-        <v>1616.219174772815</v>
+        <v>1880.987406666025</v>
       </c>
       <c r="AC5" t="n">
-        <v>1461.969485110355</v>
+        <v>1701.468608556225</v>
       </c>
       <c r="AD5" t="n">
-        <v>1181235.975968036</v>
+        <v>1374745.473743713</v>
       </c>
       <c r="AE5" t="n">
-        <v>1616219.174772815</v>
+        <v>1880987.406666025</v>
       </c>
       <c r="AF5" t="n">
         <v>4.399914372596367e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>40</v>
+        <v>39.02994791666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1461969.485110356</v>
+        <v>1701468.608556224</v>
       </c>
     </row>
     <row r="6">
@@ -7912,28 +7912,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1117.093993458651</v>
+        <v>1310.636645623251</v>
       </c>
       <c r="AB6" t="n">
-        <v>1528.457284558918</v>
+        <v>1793.270879749721</v>
       </c>
       <c r="AC6" t="n">
-        <v>1382.583466523887</v>
+        <v>1622.123623857894</v>
       </c>
       <c r="AD6" t="n">
-        <v>1117093.993458651</v>
+        <v>1310636.645623251</v>
       </c>
       <c r="AE6" t="n">
-        <v>1528457.284558918</v>
+        <v>1793270.879749721</v>
       </c>
       <c r="AF6" t="n">
         <v>4.529432235722556e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>38</v>
+        <v>37.91666666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1382583.466523887</v>
+        <v>1622123.623857894</v>
       </c>
     </row>
     <row r="7">
@@ -8018,28 +8018,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1083.677803761589</v>
+        <v>1267.506752387158</v>
       </c>
       <c r="AB7" t="n">
-        <v>1482.735779597155</v>
+        <v>1734.258657067499</v>
       </c>
       <c r="AC7" t="n">
-        <v>1341.225557825139</v>
+        <v>1568.743444884289</v>
       </c>
       <c r="AD7" t="n">
-        <v>1083677.803761589</v>
+        <v>1267506.752387159</v>
       </c>
       <c r="AE7" t="n">
-        <v>1482735.779597155</v>
+        <v>1734258.657067499</v>
       </c>
       <c r="AF7" t="n">
         <v>4.623075497249636e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>38</v>
+        <v>37.1484375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1341225.557825139</v>
+        <v>1568743.444884289</v>
       </c>
     </row>
     <row r="8">
@@ -8124,28 +8124,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1047.938705729865</v>
+        <v>1231.834974163138</v>
       </c>
       <c r="AB8" t="n">
-        <v>1433.835968972422</v>
+        <v>1685.450956373608</v>
       </c>
       <c r="AC8" t="n">
-        <v>1296.992676495115</v>
+        <v>1524.593882642585</v>
       </c>
       <c r="AD8" t="n">
-        <v>1047938.705729865</v>
+        <v>1231834.974163138</v>
       </c>
       <c r="AE8" t="n">
-        <v>1433835.968972422</v>
+        <v>1685450.956373608</v>
       </c>
       <c r="AF8" t="n">
         <v>4.695616051953714e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>37</v>
+        <v>36.57552083333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1296992.676495115</v>
+        <v>1524593.882642585</v>
       </c>
     </row>
     <row r="9">
@@ -8230,28 +8230,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1025.008458821561</v>
+        <v>1199.191023715803</v>
       </c>
       <c r="AB9" t="n">
-        <v>1402.461793541383</v>
+        <v>1640.786063222111</v>
       </c>
       <c r="AC9" t="n">
-        <v>1268.612808333283</v>
+        <v>1484.191744205895</v>
       </c>
       <c r="AD9" t="n">
-        <v>1025008.458821561</v>
+        <v>1199191.023715803</v>
       </c>
       <c r="AE9" t="n">
-        <v>1402461.793541383</v>
+        <v>1640786.063222111</v>
       </c>
       <c r="AF9" t="n">
         <v>4.745734980658348e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>37</v>
+        <v>36.18489583333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>1268612.808333283</v>
+        <v>1484191.744205895</v>
       </c>
     </row>
     <row r="10">
@@ -8336,28 +8336,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>997.6488777248638</v>
+        <v>1181.510980739356</v>
       </c>
       <c r="AB10" t="n">
-        <v>1365.027207665351</v>
+        <v>1616.595448433289</v>
       </c>
       <c r="AC10" t="n">
-        <v>1234.750926793488</v>
+        <v>1462.309847740777</v>
       </c>
       <c r="AD10" t="n">
-        <v>997648.8777248638</v>
+        <v>1181510.980739356</v>
       </c>
       <c r="AE10" t="n">
-        <v>1365027.207665351</v>
+        <v>1616595.448433289</v>
       </c>
       <c r="AF10" t="n">
         <v>4.783983636775044e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>36</v>
+        <v>35.8984375</v>
       </c>
       <c r="AH10" t="n">
-        <v>1234750.926793488</v>
+        <v>1462309.847740777</v>
       </c>
     </row>
     <row r="11">
@@ -8442,28 +8442,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>977.7146746836112</v>
+        <v>1151.964559385557</v>
       </c>
       <c r="AB11" t="n">
-        <v>1337.752351629339</v>
+        <v>1576.168731240908</v>
       </c>
       <c r="AC11" t="n">
-        <v>1210.079144737052</v>
+        <v>1425.741399697983</v>
       </c>
       <c r="AD11" t="n">
-        <v>977714.6746836111</v>
+        <v>1151964.559385557</v>
       </c>
       <c r="AE11" t="n">
-        <v>1337752.351629339</v>
+        <v>1576168.731240908</v>
       </c>
       <c r="AF11" t="n">
         <v>4.822232292891739e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>36</v>
+        <v>35.61197916666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>1210079.144737052</v>
+        <v>1425741.399697983</v>
       </c>
     </row>
     <row r="12">
@@ -8548,28 +8548,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>962.2078548239316</v>
+        <v>1136.356254299392</v>
       </c>
       <c r="AB12" t="n">
-        <v>1316.535236584715</v>
+        <v>1554.812759632194</v>
       </c>
       <c r="AC12" t="n">
-        <v>1190.886961373879</v>
+        <v>1406.423612046311</v>
       </c>
       <c r="AD12" t="n">
-        <v>962207.8548239316</v>
+        <v>1136356.254299392</v>
       </c>
       <c r="AE12" t="n">
-        <v>1316535.236584715</v>
+        <v>1554812.759632194</v>
       </c>
       <c r="AF12" t="n">
         <v>4.844917702726468e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>36</v>
+        <v>35.44921875</v>
       </c>
       <c r="AH12" t="n">
-        <v>1190886.961373879</v>
+        <v>1406423.612046311</v>
       </c>
     </row>
     <row r="13">
@@ -8654,28 +8654,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>953.3117610883845</v>
+        <v>1127.460160563845</v>
       </c>
       <c r="AB13" t="n">
-        <v>1304.363208667783</v>
+        <v>1542.640731715263</v>
       </c>
       <c r="AC13" t="n">
-        <v>1179.87661471779</v>
+        <v>1395.413265390222</v>
       </c>
       <c r="AD13" t="n">
-        <v>953311.7610883845</v>
+        <v>1127460.160563845</v>
       </c>
       <c r="AE13" t="n">
-        <v>1304363.208667783</v>
+        <v>1542640.731715263</v>
       </c>
       <c r="AF13" t="n">
         <v>4.861272300514296e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>36</v>
+        <v>35.32552083333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>1179876.61471779</v>
+        <v>1395413.265390222</v>
       </c>
     </row>
     <row r="14">
@@ -8760,28 +8760,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>949.7300348724523</v>
+        <v>1123.878434347913</v>
       </c>
       <c r="AB14" t="n">
-        <v>1299.462532844536</v>
+        <v>1537.740055892015</v>
       </c>
       <c r="AC14" t="n">
-        <v>1175.443652516972</v>
+        <v>1390.980303189404</v>
       </c>
       <c r="AD14" t="n">
-        <v>949730.0348724523</v>
+        <v>1123878.434347913</v>
       </c>
       <c r="AE14" t="n">
-        <v>1299462.532844536</v>
+        <v>1537740.055892015</v>
       </c>
       <c r="AF14" t="n">
         <v>4.867866896396484e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>36</v>
+        <v>35.27994791666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>1175443.652516972</v>
+        <v>1390980.303189404</v>
       </c>
     </row>
     <row r="15">
@@ -8866,28 +8866,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>952.5211489313853</v>
+        <v>1126.669548406846</v>
       </c>
       <c r="AB15" t="n">
-        <v>1303.28145823523</v>
+        <v>1541.55898128271</v>
       </c>
       <c r="AC15" t="n">
-        <v>1178.898105028274</v>
+        <v>1394.434755700706</v>
       </c>
       <c r="AD15" t="n">
-        <v>952521.1489313853</v>
+        <v>1126669.548406846</v>
       </c>
       <c r="AE15" t="n">
-        <v>1303281.45823523</v>
+        <v>1541558.981282709</v>
       </c>
       <c r="AF15" t="n">
         <v>4.868130680231772e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>36</v>
+        <v>35.27994791666666</v>
       </c>
       <c r="AH15" t="n">
-        <v>1178898.105028274</v>
+        <v>1394434.755700706</v>
       </c>
     </row>
   </sheetData>
@@ -9163,28 +9163,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1179.248326146099</v>
+        <v>1394.357086352105</v>
       </c>
       <c r="AB2" t="n">
-        <v>1613.499584597519</v>
+        <v>1907.820880240111</v>
       </c>
       <c r="AC2" t="n">
-        <v>1459.509448804421</v>
+        <v>1725.741133073416</v>
       </c>
       <c r="AD2" t="n">
-        <v>1179248.326146099</v>
+        <v>1394357.086352105</v>
       </c>
       <c r="AE2" t="n">
-        <v>1613499.584597519</v>
+        <v>1907820.880240111</v>
       </c>
       <c r="AF2" t="n">
         <v>5.20355925107935e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>47</v>
+        <v>46.06770833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1459509.448804421</v>
+        <v>1725741.133073417</v>
       </c>
     </row>
     <row r="3">
@@ -9269,28 +9269,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>887.8678632810905</v>
+        <v>1074.94333265684</v>
       </c>
       <c r="AB3" t="n">
-        <v>1214.819980506839</v>
+        <v>1470.784890893968</v>
       </c>
       <c r="AC3" t="n">
-        <v>1098.879266577817</v>
+        <v>1330.415245166606</v>
       </c>
       <c r="AD3" t="n">
-        <v>887867.8632810905</v>
+        <v>1074943.33265684</v>
       </c>
       <c r="AE3" t="n">
-        <v>1214819.980506839</v>
+        <v>1470784.890893968</v>
       </c>
       <c r="AF3" t="n">
         <v>6.199499799736368e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>39</v>
+        <v>38.66536458333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1098879.266577817</v>
+        <v>1330415.245166606</v>
       </c>
     </row>
     <row r="4">
@@ -9375,28 +9375,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>799.287867594527</v>
+        <v>977.00785523055</v>
       </c>
       <c r="AB4" t="n">
-        <v>1093.620922534877</v>
+        <v>1336.785250070987</v>
       </c>
       <c r="AC4" t="n">
-        <v>989.2472765947526</v>
+        <v>1209.204341994094</v>
       </c>
       <c r="AD4" t="n">
-        <v>799287.8675945271</v>
+        <v>977007.85523055</v>
       </c>
       <c r="AE4" t="n">
-        <v>1093620.922534877</v>
+        <v>1336785.250070987</v>
       </c>
       <c r="AF4" t="n">
         <v>6.54964377821061e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>37</v>
+        <v>36.59505208333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>989247.2765947527</v>
+        <v>1209204.341994093</v>
       </c>
     </row>
     <row r="5">
@@ -9481,28 +9481,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>778.4080459407235</v>
+        <v>946.7393974480964</v>
       </c>
       <c r="AB5" t="n">
-        <v>1065.052229395424</v>
+        <v>1295.370610782921</v>
       </c>
       <c r="AC5" t="n">
-        <v>963.4051394321159</v>
+        <v>1171.742257753869</v>
       </c>
       <c r="AD5" t="n">
-        <v>778408.0459407235</v>
+        <v>946739.3974480964</v>
       </c>
       <c r="AE5" t="n">
-        <v>1065052.229395424</v>
+        <v>1295370.610782921</v>
       </c>
       <c r="AF5" t="n">
         <v>6.643162779822028e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>37</v>
+        <v>36.08072916666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>963405.1394321159</v>
+        <v>1171742.257753869</v>
       </c>
     </row>
     <row r="6">
@@ -9587,28 +9587,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>780.1861733399483</v>
+        <v>948.5175248473212</v>
       </c>
       <c r="AB6" t="n">
-        <v>1067.485141748487</v>
+        <v>1297.803523135985</v>
       </c>
       <c r="AC6" t="n">
-        <v>965.6058580448171</v>
+        <v>1173.94297636657</v>
       </c>
       <c r="AD6" t="n">
-        <v>780186.1733399483</v>
+        <v>948517.5248473212</v>
       </c>
       <c r="AE6" t="n">
-        <v>1067485.141748487</v>
+        <v>1297803.523135985</v>
       </c>
       <c r="AF6" t="n">
         <v>6.651999220919169e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>37</v>
+        <v>36.03515625</v>
       </c>
       <c r="AH6" t="n">
-        <v>965605.8580448171</v>
+        <v>1173942.97636657</v>
       </c>
     </row>
   </sheetData>
@@ -9884,28 +9884,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1560.552609837042</v>
+        <v>1816.513672468411</v>
       </c>
       <c r="AB2" t="n">
-        <v>2135.216927501229</v>
+        <v>2485.434145598587</v>
       </c>
       <c r="AC2" t="n">
-        <v>1931.43482073629</v>
+        <v>2248.227799071389</v>
       </c>
       <c r="AD2" t="n">
-        <v>1560552.609837042</v>
+        <v>1816513.672468411</v>
       </c>
       <c r="AE2" t="n">
-        <v>2135216.927501229</v>
+        <v>2485434.145598587</v>
       </c>
       <c r="AF2" t="n">
         <v>4.011745097395111e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>52</v>
+        <v>51.74479166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1931434.82073629</v>
+        <v>2248227.799071389</v>
       </c>
     </row>
     <row r="3">
@@ -9990,28 +9990,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1084.177465185215</v>
+        <v>1283.277272464491</v>
       </c>
       <c r="AB3" t="n">
-        <v>1483.419438400467</v>
+        <v>1755.836578383549</v>
       </c>
       <c r="AC3" t="n">
-        <v>1341.843969191783</v>
+        <v>1588.261999674737</v>
       </c>
       <c r="AD3" t="n">
-        <v>1084177.465185215</v>
+        <v>1283277.272464491</v>
       </c>
       <c r="AE3" t="n">
-        <v>1483419.438400466</v>
+        <v>1755836.578383549</v>
       </c>
       <c r="AF3" t="n">
         <v>5.075740757068255e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>41</v>
+        <v>40.8984375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1341843.969191783</v>
+        <v>1588261.999674737</v>
       </c>
     </row>
     <row r="4">
@@ -10096,28 +10096,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>972.8085480137865</v>
+        <v>1152.910060647181</v>
       </c>
       <c r="AB4" t="n">
-        <v>1331.039572676651</v>
+        <v>1577.462407779633</v>
       </c>
       <c r="AC4" t="n">
-        <v>1204.007023986165</v>
+        <v>1426.911609563538</v>
       </c>
       <c r="AD4" t="n">
-        <v>972808.5480137866</v>
+        <v>1152910.060647181</v>
       </c>
       <c r="AE4" t="n">
-        <v>1331039.572676651</v>
+        <v>1577462.407779633</v>
       </c>
       <c r="AF4" t="n">
         <v>5.445285548665849e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>39</v>
+        <v>38.11848958333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1204007.023986164</v>
+        <v>1426911.609563538</v>
       </c>
     </row>
     <row r="5">
@@ -10202,28 +10202,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>903.0400685038799</v>
+        <v>1083.174735526198</v>
       </c>
       <c r="AB5" t="n">
-        <v>1235.579261043114</v>
+        <v>1482.047459443688</v>
       </c>
       <c r="AC5" t="n">
-        <v>1117.657310515543</v>
+        <v>1340.602929981055</v>
       </c>
       <c r="AD5" t="n">
-        <v>903040.0685038798</v>
+        <v>1083174.735526198</v>
       </c>
       <c r="AE5" t="n">
-        <v>1235579.261043114</v>
+        <v>1482047.459443688</v>
       </c>
       <c r="AF5" t="n">
         <v>5.644246678913389e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>37</v>
+        <v>36.77734375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1117657.310515543</v>
+        <v>1340602.929981055</v>
       </c>
     </row>
     <row r="6">
@@ -10308,28 +10308,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>868.5110669290837</v>
+        <v>1039.130009433999</v>
       </c>
       <c r="AB6" t="n">
-        <v>1188.335157776438</v>
+        <v>1421.783522088165</v>
       </c>
       <c r="AC6" t="n">
-        <v>1074.922118157123</v>
+        <v>1286.090498225776</v>
       </c>
       <c r="AD6" t="n">
-        <v>868511.0669290837</v>
+        <v>1039130.009433999</v>
       </c>
       <c r="AE6" t="n">
-        <v>1188335.157776438</v>
+        <v>1421783.522088165</v>
       </c>
       <c r="AF6" t="n">
         <v>5.757756554503332e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>37</v>
+        <v>36.0546875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1074922.118157123</v>
+        <v>1286090.498225776</v>
       </c>
     </row>
     <row r="7">
@@ -10414,28 +10414,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>835.5610823010755</v>
+        <v>1015.661583904613</v>
       </c>
       <c r="AB7" t="n">
-        <v>1143.251535157669</v>
+        <v>1389.672986924996</v>
       </c>
       <c r="AC7" t="n">
-        <v>1034.141213205828</v>
+        <v>1257.044547471161</v>
       </c>
       <c r="AD7" t="n">
-        <v>835561.0823010756</v>
+        <v>1015661.583904613</v>
       </c>
       <c r="AE7" t="n">
-        <v>1143251.535157669</v>
+        <v>1389672.986924996</v>
       </c>
       <c r="AF7" t="n">
         <v>5.824076931252513e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>36</v>
+        <v>35.64453125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1034141.213205828</v>
+        <v>1257044.547471161</v>
       </c>
     </row>
     <row r="8">
@@ -10520,28 +10520,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>834.5549532416471</v>
+        <v>1005.241215554267</v>
       </c>
       <c r="AB8" t="n">
-        <v>1141.874904991278</v>
+        <v>1375.415379233846</v>
       </c>
       <c r="AC8" t="n">
-        <v>1032.895966690404</v>
+        <v>1244.147665847376</v>
       </c>
       <c r="AD8" t="n">
-        <v>834554.9532416471</v>
+        <v>1005241.215554267</v>
       </c>
       <c r="AE8" t="n">
-        <v>1141874.904991278</v>
+        <v>1375415.379233846</v>
       </c>
       <c r="AF8" t="n">
         <v>5.830135042590177e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>36</v>
+        <v>35.60546875</v>
       </c>
       <c r="AH8" t="n">
-        <v>1032895.966690404</v>
+        <v>1244147.665847376</v>
       </c>
     </row>
   </sheetData>
@@ -10817,28 +10817,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>936.660400199417</v>
+        <v>1140.052099760049</v>
       </c>
       <c r="AB2" t="n">
-        <v>1281.580082093301</v>
+        <v>1559.869578440659</v>
       </c>
       <c r="AC2" t="n">
-        <v>1159.267877767258</v>
+        <v>1410.997815164985</v>
       </c>
       <c r="AD2" t="n">
-        <v>936660.400199417</v>
+        <v>1140052.099760049</v>
       </c>
       <c r="AE2" t="n">
-        <v>1281580.082093301</v>
+        <v>1559869.578440659</v>
       </c>
       <c r="AF2" t="n">
         <v>6.464749109553955e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.46744791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1159267.877767258</v>
+        <v>1410997.815164985</v>
       </c>
     </row>
     <row r="3">
@@ -10923,28 +10923,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>749.8584977662207</v>
+        <v>925.5306331721019</v>
       </c>
       <c r="AB3" t="n">
-        <v>1025.989478065896</v>
+        <v>1266.351843835861</v>
       </c>
       <c r="AC3" t="n">
-        <v>928.0704822645625</v>
+        <v>1145.493001196141</v>
       </c>
       <c r="AD3" t="n">
-        <v>749858.4977662207</v>
+        <v>925530.6331721019</v>
       </c>
       <c r="AE3" t="n">
-        <v>1025989.478065896</v>
+        <v>1266351.843835861</v>
       </c>
       <c r="AF3" t="n">
         <v>7.382802521915269e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>38</v>
+        <v>37.1875</v>
       </c>
       <c r="AH3" t="n">
-        <v>928070.4822645625</v>
+        <v>1145493.001196141</v>
       </c>
     </row>
     <row r="4">
@@ -11029,28 +11029,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>727.8737060793326</v>
+        <v>903.6131612929182</v>
       </c>
       <c r="AB4" t="n">
-        <v>995.9089161793385</v>
+        <v>1236.363391880145</v>
       </c>
       <c r="AC4" t="n">
-        <v>900.8607669861244</v>
+        <v>1118.366605006022</v>
       </c>
       <c r="AD4" t="n">
-        <v>727873.7060793326</v>
+        <v>903613.1612929183</v>
       </c>
       <c r="AE4" t="n">
-        <v>995908.9161793385</v>
+        <v>1236363.391880145</v>
       </c>
       <c r="AF4" t="n">
         <v>7.469252200157839e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>37</v>
+        <v>36.7578125</v>
       </c>
       <c r="AH4" t="n">
-        <v>900860.7669861245</v>
+        <v>1118366.605006022</v>
       </c>
     </row>
   </sheetData>
@@ -11326,28 +11326,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2817.917412969513</v>
+        <v>3157.594266783184</v>
       </c>
       <c r="AB2" t="n">
-        <v>3855.598922167462</v>
+        <v>4320.359779040521</v>
       </c>
       <c r="AC2" t="n">
-        <v>3487.625972402728</v>
+        <v>3908.030705391764</v>
       </c>
       <c r="AD2" t="n">
-        <v>2817917.412969513</v>
+        <v>3157594.266783184</v>
       </c>
       <c r="AE2" t="n">
-        <v>3855598.922167462</v>
+        <v>4320359.779040521</v>
       </c>
       <c r="AF2" t="n">
         <v>2.451587021108194e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>69</v>
+        <v>68.359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>3487625.972402728</v>
+        <v>3908030.705391764</v>
       </c>
     </row>
     <row r="3">
@@ -11432,28 +11432,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1569.061607640574</v>
+        <v>1802.041730993635</v>
       </c>
       <c r="AB3" t="n">
-        <v>2146.85931368651</v>
+        <v>2465.632996815801</v>
       </c>
       <c r="AC3" t="n">
-        <v>1941.96607392424</v>
+        <v>2230.316444137346</v>
       </c>
       <c r="AD3" t="n">
-        <v>1569061.607640574</v>
+        <v>1802041.730993635</v>
       </c>
       <c r="AE3" t="n">
-        <v>2146859.31368651</v>
+        <v>2465632.996815801</v>
       </c>
       <c r="AF3" t="n">
         <v>3.598612616032397e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.56901041666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1941966.07392424</v>
+        <v>2230316.444137346</v>
       </c>
     </row>
     <row r="4">
@@ -11538,28 +11538,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1325.983836704115</v>
+        <v>1539.511937240743</v>
       </c>
       <c r="AB4" t="n">
-        <v>1814.269583656845</v>
+        <v>2106.42815100601</v>
       </c>
       <c r="AC4" t="n">
-        <v>1641.118240935988</v>
+        <v>1905.393604664473</v>
       </c>
       <c r="AD4" t="n">
-        <v>1325983.836704115</v>
+        <v>1539511.937240743</v>
       </c>
       <c r="AE4" t="n">
-        <v>1814269.583656845</v>
+        <v>2106428.15100601</v>
       </c>
       <c r="AF4" t="n">
         <v>4.02746015668404e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>42</v>
+        <v>41.60807291666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1641118.240935988</v>
+        <v>1905393.604664473</v>
       </c>
     </row>
     <row r="5">
@@ -11644,28 +11644,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1222.320241671303</v>
+        <v>1416.397330421353</v>
       </c>
       <c r="AB5" t="n">
-        <v>1672.432479617907</v>
+        <v>1937.9773145226</v>
       </c>
       <c r="AC5" t="n">
-        <v>1512.817871036901</v>
+        <v>1753.019479592806</v>
       </c>
       <c r="AD5" t="n">
-        <v>1222320.241671303</v>
+        <v>1416397.330421353</v>
       </c>
       <c r="AE5" t="n">
-        <v>1672432.479617907</v>
+        <v>1937977.3145226</v>
       </c>
       <c r="AF5" t="n">
         <v>4.250121094657433e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>40</v>
+        <v>39.43359375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1512817.871036901</v>
+        <v>1753019.479592806</v>
       </c>
     </row>
     <row r="6">
@@ -11750,28 +11750,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1162.606627295072</v>
+        <v>1347.008952765076</v>
       </c>
       <c r="AB6" t="n">
-        <v>1590.729678049606</v>
+        <v>1843.037075014107</v>
       </c>
       <c r="AC6" t="n">
-        <v>1438.912670179676</v>
+        <v>1667.140203293541</v>
       </c>
       <c r="AD6" t="n">
-        <v>1162606.627295072</v>
+        <v>1347008.952765076</v>
       </c>
       <c r="AE6" t="n">
-        <v>1590729.678049606</v>
+        <v>1843037.075014107</v>
       </c>
       <c r="AF6" t="n">
         <v>4.387836241265253e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>39</v>
+        <v>38.19010416666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1438912.670179676</v>
+        <v>1667140.203293541</v>
       </c>
     </row>
     <row r="7">
@@ -11856,28 +11856,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1117.724473109912</v>
+        <v>1302.092633161135</v>
       </c>
       <c r="AB7" t="n">
-        <v>1529.319934632573</v>
+        <v>1781.580584963827</v>
       </c>
       <c r="AC7" t="n">
-        <v>1383.363786485249</v>
+        <v>1611.549034398934</v>
       </c>
       <c r="AD7" t="n">
-        <v>1117724.473109912</v>
+        <v>1302092.633161135</v>
       </c>
       <c r="AE7" t="n">
-        <v>1529319.934632573</v>
+        <v>1781580.584963827</v>
       </c>
       <c r="AF7" t="n">
         <v>4.485395195591167e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>38</v>
+        <v>37.36328125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1383363.786485249</v>
+        <v>1611549.034398934</v>
       </c>
     </row>
     <row r="8">
@@ -11962,28 +11962,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1081.966212641038</v>
+        <v>1266.401692499966</v>
       </c>
       <c r="AB8" t="n">
-        <v>1480.393905115945</v>
+        <v>1732.746665378041</v>
       </c>
       <c r="AC8" t="n">
-        <v>1339.107188557574</v>
+        <v>1567.375755559579</v>
       </c>
       <c r="AD8" t="n">
-        <v>1081966.212641038</v>
+        <v>1266401.692499966</v>
       </c>
       <c r="AE8" t="n">
-        <v>1480393.905115945</v>
+        <v>1732746.665378041</v>
       </c>
       <c r="AF8" t="n">
         <v>4.554896297617544e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>37</v>
+        <v>36.79036458333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1339107.188557574</v>
+        <v>1567375.755559579</v>
       </c>
     </row>
     <row r="9">
@@ -12068,28 +12068,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1061.083568855803</v>
+        <v>1245.417563488245</v>
       </c>
       <c r="AB9" t="n">
-        <v>1451.821350611764</v>
+        <v>1704.035254309769</v>
       </c>
       <c r="AC9" t="n">
-        <v>1313.261558553439</v>
+        <v>1541.404521266945</v>
       </c>
       <c r="AD9" t="n">
-        <v>1061083.568855803</v>
+        <v>1245417.563488245</v>
       </c>
       <c r="AE9" t="n">
-        <v>1451821.350611764</v>
+        <v>1704035.254309769</v>
       </c>
       <c r="AF9" t="n">
         <v>4.605091537969927e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>37</v>
+        <v>36.39322916666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>1313261.558553439</v>
+        <v>1541404.521266945</v>
       </c>
     </row>
     <row r="10">
@@ -12174,28 +12174,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1041.848394936327</v>
+        <v>1216.541791707505</v>
       </c>
       <c r="AB10" t="n">
-        <v>1425.502937059155</v>
+        <v>1664.526149450217</v>
       </c>
       <c r="AC10" t="n">
-        <v>1289.454937452166</v>
+        <v>1505.666109923811</v>
       </c>
       <c r="AD10" t="n">
-        <v>1041848.394936327</v>
+        <v>1216541.791707505</v>
       </c>
       <c r="AE10" t="n">
-        <v>1425502.937059155</v>
+        <v>1664526.149450217</v>
       </c>
       <c r="AF10" t="n">
         <v>4.646534787696766e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>37</v>
+        <v>36.06770833333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1289454.937452166</v>
+        <v>1505666.109923811</v>
       </c>
     </row>
     <row r="11">
@@ -12280,28 +12280,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1012.020404304978</v>
+        <v>1196.421718745125</v>
       </c>
       <c r="AB11" t="n">
-        <v>1384.690964359269</v>
+        <v>1636.996977988117</v>
       </c>
       <c r="AC11" t="n">
-        <v>1252.538002146794</v>
+        <v>1480.764283948619</v>
       </c>
       <c r="AD11" t="n">
-        <v>1012020.404304978</v>
+        <v>1196421.718745125</v>
       </c>
       <c r="AE11" t="n">
-        <v>1384690.964359269</v>
+        <v>1636996.977988117</v>
       </c>
       <c r="AF11" t="n">
         <v>4.681542750198942e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>36</v>
+        <v>35.79427083333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>1252538.002146794</v>
+        <v>1480764.283948619</v>
       </c>
     </row>
     <row r="12">
@@ -12386,28 +12386,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>996.3888173724226</v>
+        <v>1171.149533951305</v>
       </c>
       <c r="AB12" t="n">
-        <v>1363.303137501202</v>
+        <v>1602.418459823106</v>
       </c>
       <c r="AC12" t="n">
-        <v>1233.191399466057</v>
+        <v>1449.485891026021</v>
       </c>
       <c r="AD12" t="n">
-        <v>996388.8173724227</v>
+        <v>1171149.533951305</v>
       </c>
       <c r="AE12" t="n">
-        <v>1363303.137501202</v>
+        <v>1602418.459823106</v>
       </c>
       <c r="AF12" t="n">
         <v>4.705996841652666e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>36</v>
+        <v>35.61197916666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>1233191.399466057</v>
+        <v>1449485.891026021</v>
       </c>
     </row>
     <row r="13">
@@ -12492,28 +12492,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>984.0652138588754</v>
+        <v>1158.724445211272</v>
       </c>
       <c r="AB13" t="n">
-        <v>1346.44143949495</v>
+        <v>1585.417905252765</v>
       </c>
       <c r="AC13" t="n">
-        <v>1217.938958251981</v>
+        <v>1434.107845523446</v>
       </c>
       <c r="AD13" t="n">
-        <v>984065.2138588753</v>
+        <v>1158724.445211272</v>
       </c>
       <c r="AE13" t="n">
-        <v>1346441.43949495</v>
+        <v>1585417.905252765</v>
       </c>
       <c r="AF13" t="n">
         <v>4.730450933106392e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>36</v>
+        <v>35.4296875</v>
       </c>
       <c r="AH13" t="n">
-        <v>1217938.958251981</v>
+        <v>1434107.845523446</v>
       </c>
     </row>
     <row r="14">
@@ -12598,28 +12598,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>974.6880299988677</v>
+        <v>1149.347261351264</v>
       </c>
       <c r="AB14" t="n">
-        <v>1333.611162845533</v>
+        <v>1572.587628603348</v>
       </c>
       <c r="AC14" t="n">
-        <v>1206.333185198577</v>
+        <v>1422.502072470042</v>
       </c>
       <c r="AD14" t="n">
-        <v>974688.0299988677</v>
+        <v>1149347.261351264</v>
       </c>
       <c r="AE14" t="n">
-        <v>1333611.162845533</v>
+        <v>1572587.628603348</v>
       </c>
       <c r="AF14" t="n">
         <v>4.74409374202268e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>36</v>
+        <v>35.32552083333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>1206333.185198577</v>
+        <v>1422502.072470042</v>
       </c>
     </row>
     <row r="15">
@@ -12704,28 +12704,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>973.1071361677083</v>
+        <v>1147.766367520105</v>
       </c>
       <c r="AB15" t="n">
-        <v>1331.448114161627</v>
+        <v>1570.424579919442</v>
       </c>
       <c r="AC15" t="n">
-        <v>1204.376574845206</v>
+        <v>1420.545462116671</v>
       </c>
       <c r="AD15" t="n">
-        <v>973107.1361677083</v>
+        <v>1147766.367520105</v>
       </c>
       <c r="AE15" t="n">
-        <v>1331448.114161627</v>
+        <v>1570424.579919442</v>
       </c>
       <c r="AF15" t="n">
         <v>4.747440091379506e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>36</v>
+        <v>35.29947916666666</v>
       </c>
       <c r="AH15" t="n">
-        <v>1204376.574845206</v>
+        <v>1420545.462116671</v>
       </c>
     </row>
     <row r="16">
@@ -12810,28 +12810,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>974.2030124067069</v>
+        <v>1148.862243759104</v>
       </c>
       <c r="AB16" t="n">
-        <v>1332.947540378472</v>
+        <v>1571.924006136288</v>
       </c>
       <c r="AC16" t="n">
-        <v>1205.732897928373</v>
+        <v>1421.901785199838</v>
       </c>
       <c r="AD16" t="n">
-        <v>974203.0124067069</v>
+        <v>1148862.243759104</v>
       </c>
       <c r="AE16" t="n">
-        <v>1332947.540378473</v>
+        <v>1571924.006136287</v>
       </c>
       <c r="AF16" t="n">
         <v>4.747182679890519e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>36</v>
+        <v>35.29947916666666</v>
       </c>
       <c r="AH16" t="n">
-        <v>1205732.897928373</v>
+        <v>1421901.785199838</v>
       </c>
     </row>
   </sheetData>
@@ -13107,28 +13107,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>813.5378689512056</v>
+        <v>1006.483589158123</v>
       </c>
       <c r="AB2" t="n">
-        <v>1113.118403056776</v>
+        <v>1377.115249608297</v>
       </c>
       <c r="AC2" t="n">
-        <v>1006.883944940527</v>
+        <v>1245.685302979073</v>
       </c>
       <c r="AD2" t="n">
-        <v>813537.8689512056</v>
+        <v>1006483.589158123</v>
       </c>
       <c r="AE2" t="n">
-        <v>1113118.403056776</v>
+        <v>1377115.249608297</v>
       </c>
       <c r="AF2" t="n">
         <v>7.403543641082398e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.57942708333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1006883.944940527</v>
+        <v>1245685.302979073</v>
       </c>
     </row>
     <row r="3">
@@ -13213,28 +13213,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>706.5121069922486</v>
+        <v>881.0114706652048</v>
       </c>
       <c r="AB3" t="n">
-        <v>966.68103390115</v>
+        <v>1205.43876164709</v>
       </c>
       <c r="AC3" t="n">
-        <v>874.4223527709757</v>
+        <v>1090.393378079419</v>
       </c>
       <c r="AD3" t="n">
-        <v>706512.1069922486</v>
+        <v>881011.4706652048</v>
       </c>
       <c r="AE3" t="n">
-        <v>966681.03390115</v>
+        <v>1205438.76164709</v>
       </c>
       <c r="AF3" t="n">
         <v>8.034309870896025e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>38</v>
+        <v>37.38932291666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>874422.3527709758</v>
+        <v>1090393.378079419</v>
       </c>
     </row>
     <row r="4">
@@ -13319,28 +13319,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>710.4080870477673</v>
+        <v>884.9074507207235</v>
       </c>
       <c r="AB4" t="n">
-        <v>972.0116856916201</v>
+        <v>1210.76941343756</v>
       </c>
       <c r="AC4" t="n">
-        <v>879.2442546361804</v>
+        <v>1095.215279944623</v>
       </c>
       <c r="AD4" t="n">
-        <v>710408.0870477672</v>
+        <v>884907.4507207236</v>
       </c>
       <c r="AE4" t="n">
-        <v>972011.6856916201</v>
+        <v>1210769.41343756</v>
       </c>
       <c r="AF4" t="n">
         <v>8.03384844717268e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>38</v>
+        <v>37.38932291666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>879244.2546361804</v>
+        <v>1095215.279944624</v>
       </c>
     </row>
   </sheetData>
@@ -13616,28 +13616,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2025.372669108159</v>
+        <v>2312.890331970687</v>
       </c>
       <c r="AB2" t="n">
-        <v>2771.204239009716</v>
+        <v>3164.598589722475</v>
       </c>
       <c r="AC2" t="n">
-        <v>2506.724395848206</v>
+        <v>2862.573741861258</v>
       </c>
       <c r="AD2" t="n">
-        <v>2025372.669108159</v>
+        <v>2312890.331970687</v>
       </c>
       <c r="AE2" t="n">
-        <v>2771204.239009716</v>
+        <v>3164598.589722475</v>
       </c>
       <c r="AF2" t="n">
         <v>3.212481009627391e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>59</v>
+        <v>58.125</v>
       </c>
       <c r="AH2" t="n">
-        <v>2506724.395848206</v>
+        <v>2862573.741861259</v>
       </c>
     </row>
     <row r="3">
@@ -13722,28 +13722,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1290.018300545603</v>
+        <v>1500.862578558165</v>
       </c>
       <c r="AB3" t="n">
-        <v>1765.059950397296</v>
+        <v>2053.546393367141</v>
       </c>
       <c r="AC3" t="n">
-        <v>1596.605106008577</v>
+        <v>1857.558807754645</v>
       </c>
       <c r="AD3" t="n">
-        <v>1290018.300545603</v>
+        <v>1500862.578558165</v>
       </c>
       <c r="AE3" t="n">
-        <v>1765059.950397296</v>
+        <v>2053546.393367141</v>
       </c>
       <c r="AF3" t="n">
         <v>4.319639643302545e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>44</v>
+        <v>43.22916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1596605.106008577</v>
+        <v>1857558.807754645</v>
       </c>
     </row>
     <row r="4">
@@ -13828,28 +13828,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1120.632473034982</v>
+        <v>1312.401348706843</v>
       </c>
       <c r="AB4" t="n">
-        <v>1533.298788421956</v>
+        <v>1795.685424361897</v>
       </c>
       <c r="AC4" t="n">
-        <v>1386.96290405333</v>
+        <v>1624.307727721119</v>
       </c>
       <c r="AD4" t="n">
-        <v>1120632.473034982</v>
+        <v>1312401.348706843</v>
       </c>
       <c r="AE4" t="n">
-        <v>1533298.788421957</v>
+        <v>1795685.424361897</v>
       </c>
       <c r="AF4" t="n">
         <v>4.721486598167543e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>40</v>
+        <v>39.55078125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1386962.90405333</v>
+        <v>1624307.727721119</v>
       </c>
     </row>
     <row r="5">
@@ -13934,28 +13934,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1039.502065967676</v>
+        <v>1231.202610801975</v>
       </c>
       <c r="AB5" t="n">
-        <v>1422.292586251517</v>
+        <v>1684.585728924962</v>
       </c>
       <c r="AC5" t="n">
-        <v>1286.550978019854</v>
+        <v>1523.811231287283</v>
       </c>
       <c r="AD5" t="n">
-        <v>1039502.065967676</v>
+        <v>1231202.610801975</v>
       </c>
       <c r="AE5" t="n">
-        <v>1422292.586251517</v>
+        <v>1684585.728924962</v>
       </c>
       <c r="AF5" t="n">
         <v>4.93001103513175e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>38</v>
+        <v>37.87760416666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1286550.978019854</v>
+        <v>1523811.231287283</v>
       </c>
     </row>
     <row r="6">
@@ -14040,28 +14040,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>991.7900361288881</v>
+        <v>1183.456415544407</v>
       </c>
       <c r="AB6" t="n">
-        <v>1357.010882119888</v>
+        <v>1619.257278160085</v>
       </c>
       <c r="AC6" t="n">
-        <v>1227.4996681071</v>
+        <v>1464.71763617435</v>
       </c>
       <c r="AD6" t="n">
-        <v>991790.0361288881</v>
+        <v>1183456.415544407</v>
       </c>
       <c r="AE6" t="n">
-        <v>1357010.882119888</v>
+        <v>1619257.278160085</v>
       </c>
       <c r="AF6" t="n">
         <v>5.051339558977498e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>37</v>
+        <v>36.96614583333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1227499.6681071</v>
+        <v>1464717.63617435</v>
       </c>
     </row>
     <row r="7">
@@ -14146,28 +14146,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>961.4784712005668</v>
+        <v>1143.523252443568</v>
       </c>
       <c r="AB7" t="n">
-        <v>1315.537261733093</v>
+        <v>1564.618962678699</v>
       </c>
       <c r="AC7" t="n">
-        <v>1189.984231841429</v>
+        <v>1415.29392483715</v>
       </c>
       <c r="AD7" t="n">
-        <v>961478.4712005667</v>
+        <v>1143523.252443569</v>
       </c>
       <c r="AE7" t="n">
-        <v>1315537.261733093</v>
+        <v>1564618.962678699</v>
       </c>
       <c r="AF7" t="n">
         <v>5.140543272726972e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>37</v>
+        <v>36.328125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1189984.231841429</v>
+        <v>1415293.92483715</v>
       </c>
     </row>
     <row r="8">
@@ -14252,28 +14252,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>927.8589558277342</v>
+        <v>1109.971056878441</v>
       </c>
       <c r="AB8" t="n">
-        <v>1269.537557611643</v>
+        <v>1518.711368488091</v>
       </c>
       <c r="AC8" t="n">
-        <v>1148.37467492034</v>
+        <v>1373.76768700438</v>
       </c>
       <c r="AD8" t="n">
-        <v>927858.9558277342</v>
+        <v>1109971.056878441</v>
       </c>
       <c r="AE8" t="n">
-        <v>1269537.557611643</v>
+        <v>1518711.368488091</v>
       </c>
       <c r="AF8" t="n">
         <v>5.204219235596373e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>36</v>
+        <v>35.87890625</v>
       </c>
       <c r="AH8" t="n">
-        <v>1148374.67492034</v>
+        <v>1373767.68700438</v>
       </c>
     </row>
     <row r="9">
@@ -14358,28 +14358,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>907.3249855207845</v>
+        <v>1079.916973625459</v>
       </c>
       <c r="AB9" t="n">
-        <v>1241.442073542839</v>
+        <v>1477.590045888786</v>
       </c>
       <c r="AC9" t="n">
-        <v>1122.960584418804</v>
+        <v>1336.570925719814</v>
       </c>
       <c r="AD9" t="n">
-        <v>907324.9855207845</v>
+        <v>1079916.973625459</v>
       </c>
       <c r="AE9" t="n">
-        <v>1241442.073542839</v>
+        <v>1477590.045888786</v>
       </c>
       <c r="AF9" t="n">
         <v>5.247530363494027e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>36</v>
+        <v>35.5859375</v>
       </c>
       <c r="AH9" t="n">
-        <v>1122960.584418804</v>
+        <v>1336570.925719814</v>
       </c>
     </row>
     <row r="10">
@@ -14464,28 +14464,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>895.6696519841873</v>
+        <v>1068.160154862377</v>
       </c>
       <c r="AB10" t="n">
-        <v>1225.494732001042</v>
+        <v>1461.503847782899</v>
       </c>
       <c r="AC10" t="n">
-        <v>1108.535234771521</v>
+        <v>1322.019971784032</v>
       </c>
       <c r="AD10" t="n">
-        <v>895669.6519841873</v>
+        <v>1068160.154862377</v>
       </c>
       <c r="AE10" t="n">
-        <v>1225494.732001042</v>
+        <v>1461503.847782899</v>
       </c>
       <c r="AF10" t="n">
         <v>5.270476656419938e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>36</v>
+        <v>35.4296875</v>
       </c>
       <c r="AH10" t="n">
-        <v>1108535.234771521</v>
+        <v>1322019.971784032</v>
       </c>
     </row>
     <row r="11">
@@ -14570,28 +14570,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>896.2482444072859</v>
+        <v>1068.738747285475</v>
       </c>
       <c r="AB11" t="n">
-        <v>1226.286387680022</v>
+        <v>1462.295503461879</v>
       </c>
       <c r="AC11" t="n">
-        <v>1109.251335943594</v>
+        <v>1322.736072956106</v>
       </c>
       <c r="AD11" t="n">
-        <v>896248.2444072859</v>
+        <v>1068738.747285475</v>
       </c>
       <c r="AE11" t="n">
-        <v>1226286.387680022</v>
+        <v>1462295.503461879</v>
       </c>
       <c r="AF11" t="n">
         <v>5.276786886974562e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>36</v>
+        <v>35.390625</v>
       </c>
       <c r="AH11" t="n">
-        <v>1109251.335943594</v>
+        <v>1322736.072956106</v>
       </c>
     </row>
   </sheetData>
@@ -14867,28 +14867,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2380.000196017337</v>
+        <v>2698.383684064183</v>
       </c>
       <c r="AB2" t="n">
-        <v>3256.421266389354</v>
+        <v>3692.047600823243</v>
       </c>
       <c r="AC2" t="n">
-        <v>2945.632991140983</v>
+        <v>3339.683759621886</v>
       </c>
       <c r="AD2" t="n">
-        <v>2380000.196017337</v>
+        <v>2698383.684064183</v>
       </c>
       <c r="AE2" t="n">
-        <v>3256421.266389354</v>
+        <v>3692047.600823243</v>
       </c>
       <c r="AF2" t="n">
         <v>2.802169609350128e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>63</v>
+        <v>62.90364583333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2945632.991140983</v>
+        <v>3339683.759621886</v>
       </c>
     </row>
     <row r="3">
@@ -14973,28 +14973,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1421.410518143291</v>
+        <v>1643.3514326934</v>
       </c>
       <c r="AB3" t="n">
-        <v>1944.836579129989</v>
+        <v>2248.505929759559</v>
       </c>
       <c r="AC3" t="n">
-        <v>1759.224105613104</v>
+        <v>2033.911679621198</v>
       </c>
       <c r="AD3" t="n">
-        <v>1421410.518143292</v>
+        <v>1643351.4326934</v>
       </c>
       <c r="AE3" t="n">
-        <v>1944836.579129989</v>
+        <v>2248505.929759558</v>
       </c>
       <c r="AF3" t="n">
         <v>3.929805978716628e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>45</v>
+        <v>44.85026041666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1759224.105613105</v>
+        <v>2033911.679621198</v>
       </c>
     </row>
     <row r="4">
@@ -15079,28 +15079,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1222.458285180767</v>
+        <v>1425.097018864015</v>
       </c>
       <c r="AB4" t="n">
-        <v>1672.621356837605</v>
+        <v>1949.880612053017</v>
       </c>
       <c r="AC4" t="n">
-        <v>1512.988722079842</v>
+        <v>1763.786743113303</v>
       </c>
       <c r="AD4" t="n">
-        <v>1222458.285180767</v>
+        <v>1425097.018864015</v>
       </c>
       <c r="AE4" t="n">
-        <v>1672621.356837605</v>
+        <v>1949880.612053017</v>
       </c>
       <c r="AF4" t="n">
         <v>4.345664193205691e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>41</v>
+        <v>40.55989583333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1512988.722079842</v>
+        <v>1763786.743113303</v>
       </c>
     </row>
     <row r="5">
@@ -15185,28 +15185,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1132.019645294969</v>
+        <v>1325.007288544787</v>
       </c>
       <c r="AB5" t="n">
-        <v>1548.879219874655</v>
+        <v>1812.933427382987</v>
       </c>
       <c r="AC5" t="n">
-        <v>1401.056360995456</v>
+        <v>1639.909605541601</v>
       </c>
       <c r="AD5" t="n">
-        <v>1132019.645294969</v>
+        <v>1325007.288544787</v>
       </c>
       <c r="AE5" t="n">
-        <v>1548879.219874655</v>
+        <v>1812933.427382987</v>
       </c>
       <c r="AF5" t="n">
         <v>4.560091085051613e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>39</v>
+        <v>38.65234375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1401056.360995456</v>
+        <v>1639909.605541601</v>
       </c>
     </row>
     <row r="6">
@@ -15291,28 +15291,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1077.055267718647</v>
+        <v>1260.425985953816</v>
       </c>
       <c r="AB6" t="n">
-        <v>1473.674533617531</v>
+        <v>1724.570440052032</v>
       </c>
       <c r="AC6" t="n">
-        <v>1333.029104444271</v>
+        <v>1559.97985770328</v>
       </c>
       <c r="AD6" t="n">
-        <v>1077055.267718647</v>
+        <v>1260425.985953816</v>
       </c>
       <c r="AE6" t="n">
-        <v>1473674.533617531</v>
+        <v>1724570.440052032</v>
       </c>
       <c r="AF6" t="n">
         <v>4.695190856555547e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>38</v>
+        <v>37.5390625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1333029.104444271</v>
+        <v>1559979.85770328</v>
       </c>
     </row>
     <row r="7">
@@ -15397,28 +15397,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1035.496674243806</v>
+        <v>1218.833227060195</v>
       </c>
       <c r="AB7" t="n">
-        <v>1416.812232589507</v>
+        <v>1667.661392390761</v>
       </c>
       <c r="AC7" t="n">
-        <v>1281.593661619622</v>
+        <v>1508.50212967845</v>
       </c>
       <c r="AD7" t="n">
-        <v>1035496.674243806</v>
+        <v>1218833.227060195</v>
       </c>
       <c r="AE7" t="n">
-        <v>1416812.232589507</v>
+        <v>1667661.392390761</v>
       </c>
       <c r="AF7" t="n">
         <v>4.788055028150435e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>37</v>
+        <v>36.81640625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1281593.661619622</v>
+        <v>1508502.12967845</v>
       </c>
     </row>
     <row r="8">
@@ -15503,28 +15503,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1012.495739776931</v>
+        <v>1195.730807366834</v>
       </c>
       <c r="AB8" t="n">
-        <v>1385.341339322316</v>
+        <v>1636.051642559479</v>
       </c>
       <c r="AC8" t="n">
-        <v>1253.126306236175</v>
+        <v>1479.909170006504</v>
       </c>
       <c r="AD8" t="n">
-        <v>1012495.739776931</v>
+        <v>1195730.807366834</v>
       </c>
       <c r="AE8" t="n">
-        <v>1385341.339322316</v>
+        <v>1636051.642559479</v>
       </c>
       <c r="AF8" t="n">
         <v>4.849783981863656e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>37</v>
+        <v>36.34114583333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1253126.306236174</v>
+        <v>1479909.170006504</v>
       </c>
     </row>
     <row r="9">
@@ -15609,28 +15609,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>991.2113575036237</v>
+        <v>1164.863665497659</v>
       </c>
       <c r="AB9" t="n">
-        <v>1356.219108495302</v>
+        <v>1593.817857291883</v>
       </c>
       <c r="AC9" t="n">
-        <v>1226.783460245984</v>
+        <v>1441.706117929357</v>
       </c>
       <c r="AD9" t="n">
-        <v>991211.3575036237</v>
+        <v>1164863.665497659</v>
       </c>
       <c r="AE9" t="n">
-        <v>1356219.108495302</v>
+        <v>1593817.857291883</v>
       </c>
       <c r="AF9" t="n">
         <v>4.895268474073397e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>37</v>
+        <v>36.00911458333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>1226783.460245984</v>
+        <v>1441706.117929357</v>
       </c>
     </row>
     <row r="10">
@@ -15715,28 +15715,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>961.3121913263911</v>
+        <v>1144.614578723999</v>
       </c>
       <c r="AB10" t="n">
-        <v>1315.309750273495</v>
+        <v>1566.112163441501</v>
       </c>
       <c r="AC10" t="n">
-        <v>1189.778433756221</v>
+        <v>1416.64461661487</v>
       </c>
       <c r="AD10" t="n">
-        <v>961312.1913263912</v>
+        <v>1144614.578723999</v>
       </c>
       <c r="AE10" t="n">
-        <v>1315309.750273495</v>
+        <v>1566112.163441501</v>
       </c>
       <c r="AF10" t="n">
         <v>4.939670002182906e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>36</v>
+        <v>35.68359375</v>
       </c>
       <c r="AH10" t="n">
-        <v>1189778.433756221</v>
+        <v>1416644.61661487</v>
       </c>
     </row>
     <row r="11">
@@ -15821,28 +15821,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>942.314701064055</v>
+        <v>1115.932843639309</v>
       </c>
       <c r="AB11" t="n">
-        <v>1289.316545986448</v>
+        <v>1526.86854814978</v>
       </c>
       <c r="AC11" t="n">
-        <v>1166.265984404638</v>
+        <v>1381.146356887831</v>
       </c>
       <c r="AD11" t="n">
-        <v>942314.7010640551</v>
+        <v>1115932.843639309</v>
       </c>
       <c r="AE11" t="n">
-        <v>1289316.545986448</v>
+        <v>1526868.54814978</v>
       </c>
       <c r="AF11" t="n">
         <v>4.969180773914227e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>36</v>
+        <v>35.46875</v>
       </c>
       <c r="AH11" t="n">
-        <v>1166265.984404638</v>
+        <v>1381146.356887831</v>
       </c>
     </row>
     <row r="12">
@@ -15927,28 +15927,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>935.3383709398969</v>
+        <v>1108.956513515151</v>
       </c>
       <c r="AB12" t="n">
-        <v>1279.771223336611</v>
+        <v>1517.323225499944</v>
       </c>
       <c r="AC12" t="n">
-        <v>1157.631653951557</v>
+        <v>1372.51202643475</v>
       </c>
       <c r="AD12" t="n">
-        <v>935338.3709398969</v>
+        <v>1108956.513515151</v>
       </c>
       <c r="AE12" t="n">
-        <v>1279771.223336611</v>
+        <v>1517323.225499944</v>
       </c>
       <c r="AF12" t="n">
         <v>4.984613012342532e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>36</v>
+        <v>35.35807291666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>1157631.653951557</v>
+        <v>1372512.02643475</v>
       </c>
     </row>
     <row r="13">
@@ -16033,28 +16033,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>932.0061468885946</v>
+        <v>1105.624289463849</v>
       </c>
       <c r="AB13" t="n">
-        <v>1275.211927382269</v>
+        <v>1512.763929545602</v>
       </c>
       <c r="AC13" t="n">
-        <v>1153.507490804086</v>
+        <v>1368.387863287279</v>
       </c>
       <c r="AD13" t="n">
-        <v>932006.1468885946</v>
+        <v>1105624.289463849</v>
       </c>
       <c r="AE13" t="n">
-        <v>1275211.927382269</v>
+        <v>1512763.929545602</v>
       </c>
       <c r="AF13" t="n">
         <v>4.991652278994039e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>36</v>
+        <v>35.3125</v>
       </c>
       <c r="AH13" t="n">
-        <v>1153507.490804086</v>
+        <v>1368387.863287279</v>
       </c>
     </row>
   </sheetData>
@@ -16330,28 +16330,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3322.978287440747</v>
+        <v>3693.830365912787</v>
       </c>
       <c r="AB2" t="n">
-        <v>4546.645492332262</v>
+        <v>5054.061666936747</v>
       </c>
       <c r="AC2" t="n">
-        <v>4112.720027800926</v>
+        <v>4571.709114864213</v>
       </c>
       <c r="AD2" t="n">
-        <v>3322978.287440747</v>
+        <v>3693830.365912787</v>
       </c>
       <c r="AE2" t="n">
-        <v>4546645.492332262</v>
+        <v>5054061.666936748</v>
       </c>
       <c r="AF2" t="n">
         <v>2.154763025465889e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>75</v>
+        <v>74.36197916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4112720.027800926</v>
+        <v>4571709.114864213</v>
       </c>
     </row>
     <row r="3">
@@ -16436,28 +16436,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1726.718265312596</v>
+        <v>1970.65348908661</v>
       </c>
       <c r="AB3" t="n">
-        <v>2362.572108034226</v>
+        <v>2696.335042864384</v>
       </c>
       <c r="AC3" t="n">
-        <v>2137.091541934219</v>
+        <v>2439.000610703408</v>
       </c>
       <c r="AD3" t="n">
-        <v>1726718.265312596</v>
+        <v>1970653.48908661</v>
       </c>
       <c r="AE3" t="n">
-        <v>2362572.108034226</v>
+        <v>2696335.042864385</v>
       </c>
       <c r="AF3" t="n">
         <v>3.309302528887989e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.41796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>2137091.541934219</v>
+        <v>2439000.610703408</v>
       </c>
     </row>
     <row r="4">
@@ -16542,28 +16542,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1432.405757976332</v>
+        <v>1647.153962046518</v>
       </c>
       <c r="AB4" t="n">
-        <v>1959.880751345302</v>
+        <v>2253.70871817625</v>
       </c>
       <c r="AC4" t="n">
-        <v>1772.832483146816</v>
+        <v>2038.61792121356</v>
       </c>
       <c r="AD4" t="n">
-        <v>1432405.757976332</v>
+        <v>1647153.962046518</v>
       </c>
       <c r="AE4" t="n">
-        <v>1959880.751345302</v>
+        <v>2253708.71817625</v>
       </c>
       <c r="AF4" t="n">
         <v>3.750099853686323e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>43</v>
+        <v>42.72786458333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1772832.483146816</v>
+        <v>2038617.92121356</v>
       </c>
     </row>
     <row r="5">
@@ -16648,28 +16648,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1312.799415261513</v>
+        <v>1507.988794989233</v>
       </c>
       <c r="AB5" t="n">
-        <v>1796.230076583454</v>
+        <v>2063.296797074609</v>
       </c>
       <c r="AC5" t="n">
-        <v>1624.800399099075</v>
+        <v>1866.37864661705</v>
       </c>
       <c r="AD5" t="n">
-        <v>1312799.415261513</v>
+        <v>1507988.794989233</v>
       </c>
       <c r="AE5" t="n">
-        <v>1796230.076583454</v>
+        <v>2063296.797074609</v>
       </c>
       <c r="AF5" t="n">
         <v>3.98465030066165e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>41</v>
+        <v>40.20833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1624800.399099075</v>
+        <v>1866378.64661705</v>
       </c>
     </row>
     <row r="6">
@@ -16754,28 +16754,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1239.122309230947</v>
+        <v>1434.34484334759</v>
       </c>
       <c r="AB6" t="n">
-        <v>1695.421809707918</v>
+        <v>1962.533893496666</v>
       </c>
       <c r="AC6" t="n">
-        <v>1533.613131728848</v>
+        <v>1775.232413134963</v>
       </c>
       <c r="AD6" t="n">
-        <v>1239122.309230947</v>
+        <v>1434344.84334759</v>
       </c>
       <c r="AE6" t="n">
-        <v>1695421.809707918</v>
+        <v>1962533.893496666</v>
       </c>
       <c r="AF6" t="n">
         <v>4.12149190456331e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>39</v>
+        <v>38.88020833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1533613.131728848</v>
+        <v>1775232.413134963</v>
       </c>
     </row>
     <row r="7">
@@ -16860,28 +16860,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1189.907173198179</v>
+        <v>1385.095541896041</v>
       </c>
       <c r="AB7" t="n">
-        <v>1628.083489369319</v>
+        <v>1895.148826524819</v>
       </c>
       <c r="AC7" t="n">
-        <v>1472.701486173439</v>
+        <v>1714.278482379374</v>
       </c>
       <c r="AD7" t="n">
-        <v>1189907.173198179</v>
+        <v>1385095.541896041</v>
       </c>
       <c r="AE7" t="n">
-        <v>1628083.489369319</v>
+        <v>1895148.826524819</v>
       </c>
       <c r="AF7" t="n">
         <v>4.22313863551904e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>38</v>
+        <v>37.94270833333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1472701.486173439</v>
+        <v>1714278.482379374</v>
       </c>
     </row>
     <row r="8">
@@ -16966,28 +16966,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1159.562786390215</v>
+        <v>1344.955165722383</v>
       </c>
       <c r="AB8" t="n">
-        <v>1586.564960638798</v>
+        <v>1840.226992975605</v>
       </c>
       <c r="AC8" t="n">
-        <v>1435.145427553338</v>
+        <v>1664.598311540819</v>
       </c>
       <c r="AD8" t="n">
-        <v>1159562.786390215</v>
+        <v>1344955.165722383</v>
       </c>
       <c r="AE8" t="n">
-        <v>1586564.960638798</v>
+        <v>1840226.992975605</v>
       </c>
       <c r="AF8" t="n">
         <v>4.296235679329819e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>38</v>
+        <v>37.29817708333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1435145.427553338</v>
+        <v>1664598.311540819</v>
       </c>
     </row>
     <row r="9">
@@ -17072,28 +17072,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1127.160382043341</v>
+        <v>1312.620081183213</v>
       </c>
       <c r="AB9" t="n">
-        <v>1542.230561518214</v>
+        <v>1795.984703785862</v>
       </c>
       <c r="AC9" t="n">
-        <v>1395.042241261102</v>
+        <v>1624.578444336902</v>
       </c>
       <c r="AD9" t="n">
-        <v>1127160.382043341</v>
+        <v>1312620.081183213</v>
       </c>
       <c r="AE9" t="n">
-        <v>1542230.561518214</v>
+        <v>1795984.703785862</v>
       </c>
       <c r="AF9" t="n">
         <v>4.352350581649205e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>37</v>
+        <v>36.81640625</v>
       </c>
       <c r="AH9" t="n">
-        <v>1395042.241261102</v>
+        <v>1624578.444336902</v>
       </c>
     </row>
     <row r="10">
@@ -17178,28 +17178,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1110.209130921547</v>
+        <v>1295.567344834934</v>
       </c>
       <c r="AB10" t="n">
-        <v>1519.037111896955</v>
+        <v>1772.652397600515</v>
       </c>
       <c r="AC10" t="n">
-        <v>1374.062341919486</v>
+        <v>1603.472940706787</v>
       </c>
       <c r="AD10" t="n">
-        <v>1110209.130921547</v>
+        <v>1295567.344834934</v>
       </c>
       <c r="AE10" t="n">
-        <v>1519037.111896955</v>
+        <v>1772652.397600515</v>
       </c>
       <c r="AF10" t="n">
         <v>4.393452286418228e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>37</v>
+        <v>36.47135416666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>1374062.341919486</v>
+        <v>1603472.940706787</v>
       </c>
     </row>
     <row r="11">
@@ -17284,28 +17284,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1092.872287787</v>
+        <v>1268.535997561177</v>
       </c>
       <c r="AB11" t="n">
-        <v>1495.316078272729</v>
+        <v>1735.666915721685</v>
       </c>
       <c r="AC11" t="n">
-        <v>1352.605210451676</v>
+        <v>1570.017301309022</v>
       </c>
       <c r="AD11" t="n">
-        <v>1092872.287787</v>
+        <v>1268535.997561177</v>
       </c>
       <c r="AE11" t="n">
-        <v>1495316.078272729</v>
+        <v>1735666.915721685</v>
       </c>
       <c r="AF11" t="n">
         <v>4.427908805386272e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>37</v>
+        <v>36.18489583333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>1352605.210451676</v>
+        <v>1570017.301309022</v>
       </c>
     </row>
     <row r="12">
@@ -17390,28 +17390,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1066.759799463372</v>
+        <v>1252.185333184463</v>
       </c>
       <c r="AB12" t="n">
-        <v>1459.58781974666</v>
+        <v>1713.295215381061</v>
       </c>
       <c r="AC12" t="n">
-        <v>1320.286806774409</v>
+        <v>1549.780724650029</v>
       </c>
       <c r="AD12" t="n">
-        <v>1066759.799463372</v>
+        <v>1252185.333184463</v>
       </c>
       <c r="AE12" t="n">
-        <v>1459587.81974666</v>
+        <v>1713295.215381061</v>
       </c>
       <c r="AF12" t="n">
         <v>4.458427436472254e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>36</v>
+        <v>35.9375</v>
       </c>
       <c r="AH12" t="n">
-        <v>1320286.806774409</v>
+        <v>1549780.724650029</v>
       </c>
     </row>
     <row r="13">
@@ -17496,28 +17496,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1052.810685231869</v>
+        <v>1238.23621895296</v>
       </c>
       <c r="AB13" t="n">
-        <v>1440.50202626363</v>
+        <v>1694.209421898031</v>
       </c>
       <c r="AC13" t="n">
-        <v>1303.02253463432</v>
+        <v>1532.51645250994</v>
       </c>
       <c r="AD13" t="n">
-        <v>1052810.685231869</v>
+        <v>1238236.21895296</v>
       </c>
       <c r="AE13" t="n">
-        <v>1440502.02626363</v>
+        <v>1694209.421898031</v>
       </c>
       <c r="AF13" t="n">
         <v>4.481808645771998e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>36</v>
+        <v>35.74869791666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>1303022.534634321</v>
+        <v>1532516.45250994</v>
       </c>
     </row>
     <row r="14">
@@ -17602,28 +17602,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1039.833323834393</v>
+        <v>1215.564353416274</v>
       </c>
       <c r="AB14" t="n">
-        <v>1422.745827878824</v>
+        <v>1663.188775258621</v>
       </c>
       <c r="AC14" t="n">
-        <v>1286.96096290238</v>
+        <v>1504.456372848045</v>
       </c>
       <c r="AD14" t="n">
-        <v>1039833.323834392</v>
+        <v>1215564.353416274</v>
       </c>
       <c r="AE14" t="n">
-        <v>1422745.827878824</v>
+        <v>1663188.775258621</v>
       </c>
       <c r="AF14" t="n">
         <v>4.50125196718968e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>36</v>
+        <v>35.59895833333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>1286960.96290238</v>
+        <v>1504456.372848045</v>
       </c>
     </row>
     <row r="15">
@@ -17708,28 +17708,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1025.645458955912</v>
+        <v>1201.275003311309</v>
       </c>
       <c r="AB15" t="n">
-        <v>1403.333365227665</v>
+        <v>1643.637456043372</v>
       </c>
       <c r="AC15" t="n">
-        <v>1269.401198441084</v>
+        <v>1486.771004098251</v>
       </c>
       <c r="AD15" t="n">
-        <v>1025645.458955912</v>
+        <v>1201275.003311309</v>
       </c>
       <c r="AE15" t="n">
-        <v>1403333.365227665</v>
+        <v>1643637.456043372</v>
       </c>
       <c r="AF15" t="n">
         <v>4.517987990688444e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>36</v>
+        <v>35.46223958333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>1269401.198441084</v>
+        <v>1486771.004098251</v>
       </c>
     </row>
     <row r="16">
@@ -17814,28 +17814,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1014.744427670499</v>
+        <v>1190.373972025895</v>
       </c>
       <c r="AB16" t="n">
-        <v>1388.418093303404</v>
+        <v>1628.722184119111</v>
       </c>
       <c r="AC16" t="n">
-        <v>1255.909419135559</v>
+        <v>1473.279224792725</v>
       </c>
       <c r="AD16" t="n">
-        <v>1014744.427670499</v>
+        <v>1190373.972025895</v>
       </c>
       <c r="AE16" t="n">
-        <v>1388418.093303404</v>
+        <v>1628722.184119111</v>
       </c>
       <c r="AF16" t="n">
         <v>4.531524480283033e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>36</v>
+        <v>35.35807291666666</v>
       </c>
       <c r="AH16" t="n">
-        <v>1255909.419135559</v>
+        <v>1473279.224792725</v>
       </c>
     </row>
     <row r="17">
@@ -17920,28 +17920,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1007.546468627677</v>
+        <v>1183.176012983073</v>
       </c>
       <c r="AB17" t="n">
-        <v>1378.569528189473</v>
+        <v>1618.873619005181</v>
       </c>
       <c r="AC17" t="n">
-        <v>1247.000787253554</v>
+        <v>1464.37059291072</v>
       </c>
       <c r="AD17" t="n">
-        <v>1007546.468627677</v>
+        <v>1183176.012983073</v>
       </c>
       <c r="AE17" t="n">
-        <v>1378569.528189473</v>
+        <v>1618873.619005181</v>
       </c>
       <c r="AF17" t="n">
         <v>4.544076497907106e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>36</v>
+        <v>35.26041666666666</v>
       </c>
       <c r="AH17" t="n">
-        <v>1247000.787253554</v>
+        <v>1464370.59291072</v>
       </c>
     </row>
     <row r="18">
@@ -18026,28 +18026,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1008.31130693979</v>
+        <v>1183.940851295187</v>
       </c>
       <c r="AB18" t="n">
-        <v>1379.616013710392</v>
+        <v>1619.9201045261</v>
       </c>
       <c r="AC18" t="n">
-        <v>1247.947397665108</v>
+        <v>1465.317203322274</v>
       </c>
       <c r="AD18" t="n">
-        <v>1008311.30693979</v>
+        <v>1183940.851295187</v>
       </c>
       <c r="AE18" t="n">
-        <v>1379616.013710392</v>
+        <v>1619920.1045261</v>
       </c>
       <c r="AF18" t="n">
         <v>4.543830379914478e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>36</v>
+        <v>35.26692708333334</v>
       </c>
       <c r="AH18" t="n">
-        <v>1247947.397665108</v>
+        <v>1465317.203322274</v>
       </c>
     </row>
     <row r="19">
@@ -18132,28 +18132,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1010.684168301724</v>
+        <v>1186.31371265712</v>
       </c>
       <c r="AB19" t="n">
-        <v>1382.862667309045</v>
+        <v>1623.166758124752</v>
       </c>
       <c r="AC19" t="n">
-        <v>1250.884195201012</v>
+        <v>1468.254000858178</v>
       </c>
       <c r="AD19" t="n">
-        <v>1010684.168301724</v>
+        <v>1186313.71265712</v>
       </c>
       <c r="AE19" t="n">
-        <v>1382862.667309045</v>
+        <v>1623166.758124752</v>
       </c>
       <c r="AF19" t="n">
         <v>4.543830379914478e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>36</v>
+        <v>35.26041666666666</v>
       </c>
       <c r="AH19" t="n">
-        <v>1250884.195201012</v>
+        <v>1468254.000858178</v>
       </c>
     </row>
   </sheetData>
@@ -18429,28 +18429,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1703.44730118364</v>
+        <v>1969.931746043848</v>
       </c>
       <c r="AB2" t="n">
-        <v>2330.731748270508</v>
+        <v>2695.347522192222</v>
       </c>
       <c r="AC2" t="n">
-        <v>2108.289981418124</v>
+        <v>2438.107337618203</v>
       </c>
       <c r="AD2" t="n">
-        <v>1703447.30118364</v>
+        <v>1969931.746043848</v>
       </c>
       <c r="AE2" t="n">
-        <v>2330731.748270507</v>
+        <v>2695347.522192222</v>
       </c>
       <c r="AF2" t="n">
         <v>3.71439284616603e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>54</v>
+        <v>53.77604166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2108289.981418124</v>
+        <v>2438107.337618202</v>
       </c>
     </row>
     <row r="3">
@@ -18535,28 +18535,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1152.118074559492</v>
+        <v>1361.484067484464</v>
       </c>
       <c r="AB3" t="n">
-        <v>1576.378777474496</v>
+        <v>1862.842565570166</v>
       </c>
       <c r="AC3" t="n">
-        <v>1425.93139941384</v>
+        <v>1685.05548562811</v>
       </c>
       <c r="AD3" t="n">
-        <v>1152118.074559492</v>
+        <v>1361484.067484464</v>
       </c>
       <c r="AE3" t="n">
-        <v>1576378.777474497</v>
+        <v>1862842.565570166</v>
       </c>
       <c r="AF3" t="n">
         <v>4.795328415061035e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>42</v>
+        <v>41.65364583333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1425931.39941384</v>
+        <v>1685055.48562811</v>
       </c>
     </row>
     <row r="4">
@@ -18641,28 +18641,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1018.808971144383</v>
+        <v>1209.169645509723</v>
       </c>
       <c r="AB4" t="n">
-        <v>1393.979380999374</v>
+        <v>1654.439253786277</v>
       </c>
       <c r="AC4" t="n">
-        <v>1260.939945339142</v>
+        <v>1496.54189342499</v>
       </c>
       <c r="AD4" t="n">
-        <v>1018808.971144383</v>
+        <v>1209169.645509723</v>
       </c>
       <c r="AE4" t="n">
-        <v>1393979.380999374</v>
+        <v>1654439.253786277</v>
       </c>
       <c r="AF4" t="n">
         <v>5.177015570242808e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>39</v>
+        <v>38.58723958333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1260939.945339142</v>
+        <v>1496541.89342499</v>
       </c>
     </row>
     <row r="5">
@@ -18747,28 +18747,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>955.4075169108291</v>
+        <v>1136.181129479259</v>
       </c>
       <c r="AB5" t="n">
-        <v>1307.230714242273</v>
+        <v>1554.573146127326</v>
       </c>
       <c r="AC5" t="n">
-        <v>1182.47044958482</v>
+        <v>1406.206866918047</v>
       </c>
       <c r="AD5" t="n">
-        <v>955407.5169108291</v>
+        <v>1136181.129479259</v>
       </c>
       <c r="AE5" t="n">
-        <v>1307230.714242273</v>
+        <v>1554573.146127326</v>
       </c>
       <c r="AF5" t="n">
         <v>5.37798428941006e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>38</v>
+        <v>37.14192708333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1182470.449584821</v>
+        <v>1406206.866918047</v>
       </c>
     </row>
     <row r="6">
@@ -18853,28 +18853,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>909.2962699157207</v>
+        <v>1090.03571706537</v>
       </c>
       <c r="AB6" t="n">
-        <v>1244.139271818921</v>
+        <v>1491.434957070726</v>
       </c>
       <c r="AC6" t="n">
-        <v>1125.400365876957</v>
+        <v>1349.094498010004</v>
       </c>
       <c r="AD6" t="n">
-        <v>909296.2699157207</v>
+        <v>1090035.71706537</v>
       </c>
       <c r="AE6" t="n">
-        <v>1244139.271818921</v>
+        <v>1491434.957070726</v>
       </c>
       <c r="AF6" t="n">
         <v>5.496417763606335e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>37</v>
+        <v>36.34114583333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1125400.365876957</v>
+        <v>1349094.498010004</v>
       </c>
     </row>
     <row r="7">
@@ -18959,28 +18959,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>873.5957185418171</v>
+        <v>1054.402485499171</v>
       </c>
       <c r="AB7" t="n">
-        <v>1195.292202431977</v>
+        <v>1442.679997614624</v>
       </c>
       <c r="AC7" t="n">
-        <v>1081.215192235011</v>
+        <v>1304.992643456377</v>
       </c>
       <c r="AD7" t="n">
-        <v>873595.718541817</v>
+        <v>1054402.485499171</v>
       </c>
       <c r="AE7" t="n">
-        <v>1195292.202431977</v>
+        <v>1442679.997614624</v>
       </c>
       <c r="AF7" t="n">
         <v>5.574350671497145e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>36</v>
+        <v>35.83333333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1081215.192235011</v>
+        <v>1304992.643456377</v>
       </c>
     </row>
     <row r="8">
@@ -19065,28 +19065,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>854.5656699991058</v>
+        <v>1025.921025804815</v>
       </c>
       <c r="AB8" t="n">
-        <v>1169.25445046935</v>
+        <v>1403.710407947485</v>
       </c>
       <c r="AC8" t="n">
-        <v>1057.662446775483</v>
+        <v>1269.742256732908</v>
       </c>
       <c r="AD8" t="n">
-        <v>854565.6699991059</v>
+        <v>1025921.025804815</v>
       </c>
       <c r="AE8" t="n">
-        <v>1169254.45046935</v>
+        <v>1403710.407947485</v>
       </c>
       <c r="AF8" t="n">
         <v>5.620067219826795e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>36</v>
+        <v>35.54036458333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1057662.446775483</v>
+        <v>1269742.256732908</v>
       </c>
     </row>
     <row r="9">
@@ -19171,28 +19171,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>854.7293933122684</v>
+        <v>1025.983263891492</v>
       </c>
       <c r="AB9" t="n">
-        <v>1169.478463929382</v>
+        <v>1403.795564843428</v>
       </c>
       <c r="AC9" t="n">
-        <v>1057.865080705294</v>
+        <v>1269.81928637422</v>
       </c>
       <c r="AD9" t="n">
-        <v>854729.3933122684</v>
+        <v>1025983.263891492</v>
       </c>
       <c r="AE9" t="n">
-        <v>1169478.463929382</v>
+        <v>1403795.564843428</v>
       </c>
       <c r="AF9" t="n">
         <v>5.627430959155061e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>36</v>
+        <v>35.49479166666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>1057865.080705294</v>
+        <v>1269819.28637422</v>
       </c>
     </row>
   </sheetData>
@@ -19468,28 +19468,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1294.909756310712</v>
+        <v>1529.86475968932</v>
       </c>
       <c r="AB2" t="n">
-        <v>1771.752655970916</v>
+        <v>2093.228457076718</v>
       </c>
       <c r="AC2" t="n">
-        <v>1602.659069155521</v>
+        <v>1893.453670997906</v>
       </c>
       <c r="AD2" t="n">
-        <v>1294909.756310712</v>
+        <v>1529864.75968932</v>
       </c>
       <c r="AE2" t="n">
-        <v>1771752.655970916</v>
+        <v>2093228.457076718</v>
       </c>
       <c r="AF2" t="n">
         <v>4.741954851458734e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.90364583333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1602659.069155521</v>
+        <v>1893453.670997906</v>
       </c>
     </row>
     <row r="3">
@@ -19574,28 +19574,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>958.750543946391</v>
+        <v>1146.667726092842</v>
       </c>
       <c r="AB3" t="n">
-        <v>1311.804791316273</v>
+        <v>1568.921370250021</v>
       </c>
       <c r="AC3" t="n">
-        <v>1186.607983162635</v>
+        <v>1419.185716668332</v>
       </c>
       <c r="AD3" t="n">
-        <v>958750.543946391</v>
+        <v>1146667.726092842</v>
       </c>
       <c r="AE3" t="n">
-        <v>1311804.791316273</v>
+        <v>1568921.370250022</v>
       </c>
       <c r="AF3" t="n">
         <v>5.756493161349994e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>40</v>
+        <v>39.45963541666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1186607.983162635</v>
+        <v>1419185.716668332</v>
       </c>
     </row>
     <row r="4">
@@ -19680,28 +19680,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>862.1723745447575</v>
+        <v>1040.688623322562</v>
       </c>
       <c r="AB4" t="n">
-        <v>1179.662279212831</v>
+        <v>1423.916086371688</v>
       </c>
       <c r="AC4" t="n">
-        <v>1067.076966951165</v>
+        <v>1288.019533567152</v>
       </c>
       <c r="AD4" t="n">
-        <v>862172.3745447575</v>
+        <v>1040688.623322562</v>
       </c>
       <c r="AE4" t="n">
-        <v>1179662.279212831</v>
+        <v>1423916.086371688</v>
       </c>
       <c r="AF4" t="n">
         <v>6.122466575062486e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>38</v>
+        <v>37.09635416666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1067076.966951165</v>
+        <v>1288019.533567152</v>
       </c>
     </row>
     <row r="5">
@@ -19786,28 +19786,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>809.8710677368369</v>
+        <v>979.0205485647751</v>
       </c>
       <c r="AB5" t="n">
-        <v>1108.101323867424</v>
+        <v>1339.539105884637</v>
       </c>
       <c r="AC5" t="n">
-        <v>1002.345688747492</v>
+        <v>1211.695373673949</v>
       </c>
       <c r="AD5" t="n">
-        <v>809871.067736837</v>
+        <v>979020.5485647751</v>
       </c>
       <c r="AE5" t="n">
-        <v>1108101.323867424</v>
+        <v>1339539.105884637</v>
       </c>
       <c r="AF5" t="n">
         <v>6.29132370779542e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>37</v>
+        <v>36.10677083333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1002345.688747492</v>
+        <v>1211695.373673949</v>
       </c>
     </row>
     <row r="6">
@@ -19892,28 +19892,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>790.6796944774647</v>
+        <v>969.2290976441926</v>
       </c>
       <c r="AB6" t="n">
-        <v>1081.842840310317</v>
+        <v>1326.142010766768</v>
       </c>
       <c r="AC6" t="n">
-        <v>978.5932780070625</v>
+        <v>1199.576878511189</v>
       </c>
       <c r="AD6" t="n">
-        <v>790679.6944774648</v>
+        <v>969229.0976441926</v>
       </c>
       <c r="AE6" t="n">
-        <v>1081842.840310317</v>
+        <v>1326142.010766768</v>
       </c>
       <c r="AF6" t="n">
         <v>6.337026774712805e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>36</v>
+        <v>35.84635416666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>978593.2780070625</v>
+        <v>1199576.878511189</v>
       </c>
     </row>
   </sheetData>
@@ -36930,28 +36930,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1057.306864416714</v>
+        <v>1271.208464377451</v>
       </c>
       <c r="AB2" t="n">
-        <v>1446.653896981762</v>
+        <v>1739.323502720626</v>
       </c>
       <c r="AC2" t="n">
-        <v>1308.587279445319</v>
+        <v>1573.324908776837</v>
       </c>
       <c r="AD2" t="n">
-        <v>1057306.864416714</v>
+        <v>1271208.464377451</v>
       </c>
       <c r="AE2" t="n">
-        <v>1446653.896981762</v>
+        <v>1739323.502720626</v>
       </c>
       <c r="AF2" t="n">
         <v>5.763064582504568e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>45</v>
+        <v>44.26432291666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1308587.279445319</v>
+        <v>1573324.908776837</v>
       </c>
     </row>
     <row r="3">
@@ -37036,28 +37036,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>813.5362946433667</v>
+        <v>999.5873121588512</v>
       </c>
       <c r="AB3" t="n">
-        <v>1113.116249019337</v>
+        <v>1367.679459175625</v>
       </c>
       <c r="AC3" t="n">
-        <v>1006.881996481398</v>
+        <v>1237.150051142079</v>
       </c>
       <c r="AD3" t="n">
-        <v>813536.2946433667</v>
+        <v>999587.3121588512</v>
       </c>
       <c r="AE3" t="n">
-        <v>1113116.249019337</v>
+        <v>1367679.459175624</v>
       </c>
       <c r="AF3" t="n">
         <v>6.739051656746112e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>38</v>
+        <v>37.8515625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1006881.996481398</v>
+        <v>1237150.051142079</v>
       </c>
     </row>
     <row r="4">
@@ -37142,28 +37142,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>753.2465070979628</v>
+        <v>929.9242373880905</v>
       </c>
       <c r="AB4" t="n">
-        <v>1030.625101902008</v>
+        <v>1272.363366956315</v>
       </c>
       <c r="AC4" t="n">
-        <v>932.2636886678949</v>
+        <v>1150.930792987205</v>
       </c>
       <c r="AD4" t="n">
-        <v>753246.5070979628</v>
+        <v>929924.2373880906</v>
       </c>
       <c r="AE4" t="n">
-        <v>1030625.101902008</v>
+        <v>1272363.366956315</v>
       </c>
       <c r="AF4" t="n">
         <v>7.01096455498924e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>37</v>
+        <v>36.38671875</v>
       </c>
       <c r="AH4" t="n">
-        <v>932263.6886678949</v>
+        <v>1150930.792987205</v>
       </c>
     </row>
     <row r="5">
@@ -37248,28 +37248,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>755.3912356524996</v>
+        <v>932.0689659426273</v>
       </c>
       <c r="AB5" t="n">
-        <v>1033.559614129071</v>
+        <v>1275.297879183378</v>
       </c>
       <c r="AC5" t="n">
-        <v>934.9181351666209</v>
+        <v>1153.585239485931</v>
       </c>
       <c r="AD5" t="n">
-        <v>755391.2356524996</v>
+        <v>932068.9659426273</v>
       </c>
       <c r="AE5" t="n">
-        <v>1033559.614129071</v>
+        <v>1275297.879183378</v>
       </c>
       <c r="AF5" t="n">
         <v>7.019584272224613e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>37</v>
+        <v>36.34114583333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>934918.135166621</v>
+        <v>1153585.239485931</v>
       </c>
     </row>
   </sheetData>
@@ -37545,28 +37545,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>690.0903603092739</v>
+        <v>872.4105039342721</v>
       </c>
       <c r="AB2" t="n">
-        <v>944.2120756131715</v>
+        <v>1193.670539517956</v>
       </c>
       <c r="AC2" t="n">
-        <v>854.0978003266209</v>
+        <v>1079.748298553486</v>
       </c>
       <c r="AD2" t="n">
-        <v>690090.3603092739</v>
+        <v>872410.5039342721</v>
       </c>
       <c r="AE2" t="n">
-        <v>944212.0756131714</v>
+        <v>1193670.539517956</v>
       </c>
       <c r="AF2" t="n">
         <v>8.66998024930702e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.91276041666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>854097.8003266209</v>
+        <v>1079748.298553486</v>
       </c>
     </row>
     <row r="3">
@@ -37651,28 +37651,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>684.2093672966739</v>
+        <v>866.428025695187</v>
       </c>
       <c r="AB3" t="n">
-        <v>936.1654415222317</v>
+        <v>1185.485048862927</v>
       </c>
       <c r="AC3" t="n">
-        <v>846.8191256997986</v>
+        <v>1072.344019638164</v>
       </c>
       <c r="AD3" t="n">
-        <v>684209.3672966739</v>
+        <v>866428.025695187</v>
       </c>
       <c r="AE3" t="n">
-        <v>936165.4415222317</v>
+        <v>1185485.048862927</v>
       </c>
       <c r="AF3" t="n">
         <v>8.765846984476573e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>39</v>
+        <v>38.48958333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>846819.1256997986</v>
+        <v>1072344.019638164</v>
       </c>
     </row>
   </sheetData>
@@ -37948,28 +37948,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2195.931235324188</v>
+        <v>2494.029075637656</v>
       </c>
       <c r="AB2" t="n">
-        <v>3004.569993819548</v>
+        <v>3412.44061008501</v>
       </c>
       <c r="AC2" t="n">
-        <v>2717.818050549768</v>
+        <v>3086.762067648844</v>
       </c>
       <c r="AD2" t="n">
-        <v>2195931.235324189</v>
+        <v>2494029.075637656</v>
       </c>
       <c r="AE2" t="n">
-        <v>3004569.993819548</v>
+        <v>3412440.61008501</v>
       </c>
       <c r="AF2" t="n">
         <v>2.998446474119772e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>61</v>
+        <v>60.44270833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2717818.050549767</v>
+        <v>3086762.067648844</v>
       </c>
     </row>
     <row r="3">
@@ -38054,28 +38054,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1359.065788477645</v>
+        <v>1570.648042898719</v>
       </c>
       <c r="AB3" t="n">
-        <v>1859.533769546096</v>
+        <v>2149.029944395289</v>
       </c>
       <c r="AC3" t="n">
-        <v>1682.062476452653</v>
+        <v>1943.929542684672</v>
       </c>
       <c r="AD3" t="n">
-        <v>1359065.788477645</v>
+        <v>1570648.042898719</v>
       </c>
       <c r="AE3" t="n">
-        <v>1859533.769546096</v>
+        <v>2149029.944395289</v>
       </c>
       <c r="AF3" t="n">
         <v>4.11753985690331e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>45</v>
+        <v>44.01692708333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1682062.476452653</v>
+        <v>1943929.542684672</v>
       </c>
     </row>
     <row r="4">
@@ -38160,28 +38160,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1177.432855629912</v>
+        <v>1369.774239666552</v>
       </c>
       <c r="AB4" t="n">
-        <v>1611.015577744366</v>
+        <v>1874.185544886283</v>
       </c>
       <c r="AC4" t="n">
-        <v>1457.262512079007</v>
+        <v>1695.315906918268</v>
       </c>
       <c r="AD4" t="n">
-        <v>1177432.855629912</v>
+        <v>1369774.239666552</v>
       </c>
       <c r="AE4" t="n">
-        <v>1611015.577744366</v>
+        <v>1874185.544886283</v>
       </c>
       <c r="AF4" t="n">
         <v>4.522306468487207e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>41</v>
+        <v>40.078125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1457262.512079007</v>
+        <v>1695315.906918268</v>
       </c>
     </row>
     <row r="5">
@@ -38266,28 +38266,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1090.706992838033</v>
+        <v>1282.980046037111</v>
       </c>
       <c r="AB5" t="n">
-        <v>1492.353426197481</v>
+        <v>1755.429900072902</v>
       </c>
       <c r="AC5" t="n">
-        <v>1349.925309732381</v>
+        <v>1587.894134171283</v>
       </c>
       <c r="AD5" t="n">
-        <v>1090706.992838033</v>
+        <v>1282980.046037111</v>
       </c>
       <c r="AE5" t="n">
-        <v>1492353.426197481</v>
+        <v>1755429.900072902</v>
       </c>
       <c r="AF5" t="n">
         <v>4.734711506065277e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>39</v>
+        <v>38.28125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1349925.309732381</v>
+        <v>1587894.134171283</v>
       </c>
     </row>
     <row r="6">
@@ -38372,28 +38372,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1040.722008474827</v>
+        <v>1223.408791900468</v>
       </c>
       <c r="AB6" t="n">
-        <v>1423.961765409867</v>
+        <v>1673.921882064897</v>
       </c>
       <c r="AC6" t="n">
-        <v>1288.060853062038</v>
+        <v>1514.16512700474</v>
       </c>
       <c r="AD6" t="n">
-        <v>1040722.008474827</v>
+        <v>1223408.791900468</v>
       </c>
       <c r="AE6" t="n">
-        <v>1423961.765409867</v>
+        <v>1673921.882064897</v>
       </c>
       <c r="AF6" t="n">
         <v>4.863880493530839e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>38</v>
+        <v>37.25911458333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1288060.853062038</v>
+        <v>1514165.12700474</v>
       </c>
     </row>
     <row r="7">
@@ -38478,28 +38478,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1002.191326098617</v>
+        <v>1184.945429331962</v>
       </c>
       <c r="AB7" t="n">
-        <v>1371.242385928999</v>
+        <v>1621.294612514871</v>
       </c>
       <c r="AC7" t="n">
-        <v>1240.372937166711</v>
+        <v>1466.560530197732</v>
       </c>
       <c r="AD7" t="n">
-        <v>1002191.326098617</v>
+        <v>1184945.429331962</v>
       </c>
       <c r="AE7" t="n">
-        <v>1371242.385928999</v>
+        <v>1621294.612514871</v>
       </c>
       <c r="AF7" t="n">
         <v>4.949900358028379e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>37</v>
+        <v>36.61458333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1240372.937166711</v>
+        <v>1466560.530197732</v>
       </c>
     </row>
     <row r="8">
@@ -38584,28 +38584,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>975.9241680802533</v>
+        <v>1149.024681732458</v>
       </c>
       <c r="AB8" t="n">
-        <v>1335.302501503048</v>
+        <v>1572.146260937689</v>
       </c>
       <c r="AC8" t="n">
-        <v>1207.863104868428</v>
+        <v>1422.102828314931</v>
       </c>
       <c r="AD8" t="n">
-        <v>975924.1680802533</v>
+        <v>1149024.681732458</v>
       </c>
       <c r="AE8" t="n">
-        <v>1335302.501503048</v>
+        <v>1572146.260937689</v>
       </c>
       <c r="AF8" t="n">
         <v>5.016433521830684e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>37</v>
+        <v>36.12630208333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1207863.104868428</v>
+        <v>1422102.828314931</v>
       </c>
     </row>
     <row r="9">
@@ -38690,28 +38690,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>944.4701033033353</v>
+        <v>1127.1900411179</v>
       </c>
       <c r="AB9" t="n">
-        <v>1292.265662419867</v>
+        <v>1542.271142372492</v>
       </c>
       <c r="AC9" t="n">
-        <v>1168.933641304762</v>
+        <v>1395.078949135604</v>
       </c>
       <c r="AD9" t="n">
-        <v>944470.1033033354</v>
+        <v>1127190.0411179</v>
       </c>
       <c r="AE9" t="n">
-        <v>1292265.662419867</v>
+        <v>1542271.142372492</v>
       </c>
       <c r="AF9" t="n">
         <v>5.06487189213027e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>36</v>
+        <v>35.78125</v>
       </c>
       <c r="AH9" t="n">
-        <v>1168933.641304762</v>
+        <v>1395078.949135604</v>
       </c>
     </row>
     <row r="10">
@@ -38796,28 +38796,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>923.9447852478318</v>
+        <v>1097.011133481256</v>
       </c>
       <c r="AB10" t="n">
-        <v>1264.182016743202</v>
+        <v>1500.979029544595</v>
       </c>
       <c r="AC10" t="n">
-        <v>1143.530259355834</v>
+        <v>1357.727697602157</v>
       </c>
       <c r="AD10" t="n">
-        <v>923944.7852478317</v>
+        <v>1097011.133481256</v>
       </c>
       <c r="AE10" t="n">
-        <v>1264182.016743202</v>
+        <v>1500979.029544595</v>
       </c>
       <c r="AF10" t="n">
         <v>5.107742633659789e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>36</v>
+        <v>35.48177083333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1143530.259355834</v>
+        <v>1357727.697602157</v>
       </c>
     </row>
     <row r="11">
@@ -38902,28 +38902,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>914.9919436366314</v>
+        <v>1088.058291870055</v>
       </c>
       <c r="AB11" t="n">
-        <v>1251.932343879261</v>
+        <v>1488.729356680655</v>
       </c>
       <c r="AC11" t="n">
-        <v>1132.449678077504</v>
+        <v>1346.647116323827</v>
       </c>
       <c r="AD11" t="n">
-        <v>914991.9436366314</v>
+        <v>1088058.291870055</v>
       </c>
       <c r="AE11" t="n">
-        <v>1251932.343879261</v>
+        <v>1488729.356680654</v>
       </c>
       <c r="AF11" t="n">
         <v>5.124723901408495e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>36</v>
+        <v>35.36458333333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>1132449.678077504</v>
+        <v>1346647.116323827</v>
       </c>
     </row>
     <row r="12">
@@ -39008,28 +39008,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>913.528704350764</v>
+        <v>1086.595052584188</v>
       </c>
       <c r="AB12" t="n">
-        <v>1249.930275334776</v>
+        <v>1486.727288136169</v>
       </c>
       <c r="AC12" t="n">
-        <v>1130.638684144984</v>
+        <v>1344.836122391307</v>
       </c>
       <c r="AD12" t="n">
-        <v>913528.7043507639</v>
+        <v>1086595.052584188</v>
       </c>
       <c r="AE12" t="n">
-        <v>1249930.275334776</v>
+        <v>1486727.288136169</v>
       </c>
       <c r="AF12" t="n">
         <v>5.130569911617065e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>36</v>
+        <v>35.32552083333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>1130638.684144984</v>
+        <v>1344836.122391307</v>
       </c>
     </row>
   </sheetData>
@@ -39305,28 +39305,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3062.363502019615</v>
+        <v>3422.437851295086</v>
       </c>
       <c r="AB2" t="n">
-        <v>4190.060845406169</v>
+        <v>4682.730455444053</v>
       </c>
       <c r="AC2" t="n">
-        <v>3790.167319107778</v>
+        <v>4235.817233029768</v>
       </c>
       <c r="AD2" t="n">
-        <v>3062363.502019615</v>
+        <v>3422437.851295086</v>
       </c>
       <c r="AE2" t="n">
-        <v>4190060.84540617</v>
+        <v>4682730.455444054</v>
       </c>
       <c r="AF2" t="n">
         <v>2.296853153337074e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>72</v>
+        <v>71.30208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3790167.319107777</v>
+        <v>4235817.233029769</v>
       </c>
     </row>
     <row r="3">
@@ -39411,28 +39411,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1648.568031284191</v>
+        <v>1882.239922315229</v>
       </c>
       <c r="AB3" t="n">
-        <v>2255.643510091566</v>
+        <v>2575.363700276501</v>
       </c>
       <c r="AC3" t="n">
-        <v>2040.368059303976</v>
+        <v>2329.574603267766</v>
       </c>
       <c r="AD3" t="n">
-        <v>1648568.031284191</v>
+        <v>1882239.922315229</v>
       </c>
       <c r="AE3" t="n">
-        <v>2255643.510091566</v>
+        <v>2575363.700276501</v>
       </c>
       <c r="AF3" t="n">
         <v>3.446663224950672e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.51302083333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>2040368.059303976</v>
+        <v>2329574.603267766</v>
       </c>
     </row>
     <row r="4">
@@ -39517,28 +39517,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1383.990788180379</v>
+        <v>1588.386373024833</v>
       </c>
       <c r="AB4" t="n">
-        <v>1893.637253752756</v>
+        <v>2173.300310233732</v>
       </c>
       <c r="AC4" t="n">
-        <v>1712.911171991171</v>
+        <v>1965.883578871167</v>
       </c>
       <c r="AD4" t="n">
-        <v>1383990.788180379</v>
+        <v>1588386.373024833</v>
       </c>
       <c r="AE4" t="n">
-        <v>1893637.253752756</v>
+        <v>2173300.310233733</v>
       </c>
       <c r="AF4" t="n">
         <v>3.88359608305455e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>43</v>
+        <v>42.16796874999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>1712911.171991171</v>
+        <v>1965883.578871167</v>
       </c>
     </row>
     <row r="5">
@@ -39623,28 +39623,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1261.628674299855</v>
+        <v>1466.023248114452</v>
       </c>
       <c r="AB5" t="n">
-        <v>1726.216011305948</v>
+        <v>2005.87768445127</v>
       </c>
       <c r="AC5" t="n">
-        <v>1561.468377946296</v>
+        <v>1814.439533514252</v>
       </c>
       <c r="AD5" t="n">
-        <v>1261628.674299855</v>
+        <v>1466023.248114452</v>
       </c>
       <c r="AE5" t="n">
-        <v>1726216.011305948</v>
+        <v>2005877.68445127</v>
       </c>
       <c r="AF5" t="n">
         <v>4.114765511147504e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>40</v>
+        <v>39.79817708333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1561468.377946296</v>
+        <v>1814439.533514252</v>
       </c>
     </row>
     <row r="6">
@@ -39729,28 +39729,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1200.48629303903</v>
+        <v>1395.178703479447</v>
       </c>
       <c r="AB6" t="n">
-        <v>1642.558307853399</v>
+        <v>1908.945053040929</v>
       </c>
       <c r="AC6" t="n">
-        <v>1485.794848296933</v>
+        <v>1726.758016399912</v>
       </c>
       <c r="AD6" t="n">
-        <v>1200486.293039029</v>
+        <v>1395178.703479447</v>
       </c>
       <c r="AE6" t="n">
-        <v>1642558.307853399</v>
+        <v>1908945.053040929</v>
       </c>
       <c r="AF6" t="n">
         <v>4.251354193905365e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>39</v>
+        <v>38.52213541666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1485794.848296933</v>
+        <v>1726758.016399912</v>
       </c>
     </row>
     <row r="7">
@@ -39835,28 +39835,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1154.998710016015</v>
+        <v>1349.656955037652</v>
       </c>
       <c r="AB7" t="n">
-        <v>1580.320189990779</v>
+        <v>1846.660188545062</v>
       </c>
       <c r="AC7" t="n">
-        <v>1429.496649051375</v>
+        <v>1670.417531954173</v>
       </c>
       <c r="AD7" t="n">
-        <v>1154998.710016015</v>
+        <v>1349656.955037652</v>
       </c>
       <c r="AE7" t="n">
-        <v>1580320.189990779</v>
+        <v>1846660.188545062</v>
       </c>
       <c r="AF7" t="n">
         <v>4.346941117382322e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>38</v>
+        <v>37.67578125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1429496.649051375</v>
+        <v>1670417.531954173</v>
       </c>
     </row>
     <row r="8">
@@ -39941,28 +39941,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1128.647531672298</v>
+        <v>1313.536293512051</v>
       </c>
       <c r="AB8" t="n">
-        <v>1544.265345248964</v>
+        <v>1797.238305914614</v>
       </c>
       <c r="AC8" t="n">
-        <v>1396.882828088426</v>
+        <v>1625.712404437927</v>
       </c>
       <c r="AD8" t="n">
-        <v>1128647.531672298</v>
+        <v>1313536.293512051</v>
       </c>
       <c r="AE8" t="n">
-        <v>1544265.345248963</v>
+        <v>1797238.305914614</v>
       </c>
       <c r="AF8" t="n">
         <v>4.418882854525504e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>38</v>
+        <v>37.05729166666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1396882.828088426</v>
+        <v>1625712.404437927</v>
       </c>
     </row>
     <row r="9">
@@ -40047,28 +40047,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1094.654984895987</v>
+        <v>1279.611066543445</v>
       </c>
       <c r="AB9" t="n">
-        <v>1497.755243104291</v>
+        <v>1750.820313700783</v>
       </c>
       <c r="AC9" t="n">
-        <v>1354.811584815103</v>
+        <v>1583.724480252923</v>
       </c>
       <c r="AD9" t="n">
-        <v>1094654.984895987</v>
+        <v>1279611.066543445</v>
       </c>
       <c r="AE9" t="n">
-        <v>1497755.243104291</v>
+        <v>1750820.313700783</v>
       </c>
       <c r="AF9" t="n">
         <v>4.471958751508762e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>37</v>
+        <v>36.62109375</v>
       </c>
       <c r="AH9" t="n">
-        <v>1354811.584815103</v>
+        <v>1583724.480252923</v>
       </c>
     </row>
     <row r="10">
@@ -40153,28 +40153,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1076.422495539588</v>
+        <v>1251.609094005162</v>
       </c>
       <c r="AB10" t="n">
-        <v>1472.808746806204</v>
+        <v>1712.506779514064</v>
       </c>
       <c r="AC10" t="n">
-        <v>1332.245947111078</v>
+        <v>1549.067535995601</v>
       </c>
       <c r="AD10" t="n">
-        <v>1076422.495539588</v>
+        <v>1251609.094005162</v>
       </c>
       <c r="AE10" t="n">
-        <v>1472808.746806204</v>
+        <v>1712506.779514064</v>
       </c>
       <c r="AF10" t="n">
         <v>4.512960510789668e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>37</v>
+        <v>36.2890625</v>
       </c>
       <c r="AH10" t="n">
-        <v>1332245.947111078</v>
+        <v>1549067.535995601</v>
       </c>
     </row>
     <row r="11">
@@ -40259,28 +40259,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1059.144660303073</v>
+        <v>1234.331258768647</v>
       </c>
       <c r="AB11" t="n">
-        <v>1449.16845039131</v>
+        <v>1688.866483099169</v>
       </c>
       <c r="AC11" t="n">
-        <v>1310.861847406657</v>
+        <v>1527.68343629118</v>
       </c>
       <c r="AD11" t="n">
-        <v>1059144.660303073</v>
+        <v>1234331.258768647</v>
       </c>
       <c r="AE11" t="n">
-        <v>1449168.45039131</v>
+        <v>1688866.483099169</v>
       </c>
       <c r="AF11" t="n">
         <v>4.546919023077534e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>37</v>
+        <v>36.015625</v>
       </c>
       <c r="AH11" t="n">
-        <v>1310861.847406657</v>
+        <v>1527683.43629118</v>
       </c>
     </row>
     <row r="12">
@@ -40365,28 +40365,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1032.367575972434</v>
+        <v>1217.289492201111</v>
       </c>
       <c r="AB12" t="n">
-        <v>1412.530862288543</v>
+        <v>1665.549186251787</v>
       </c>
       <c r="AC12" t="n">
-        <v>1277.72089929124</v>
+        <v>1506.591509528881</v>
       </c>
       <c r="AD12" t="n">
-        <v>1032367.575972434</v>
+        <v>1217289.492201111</v>
       </c>
       <c r="AE12" t="n">
-        <v>1412530.862288543</v>
+        <v>1665549.186251787</v>
       </c>
       <c r="AF12" t="n">
         <v>4.579619812688071e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>36</v>
+        <v>35.76171875</v>
       </c>
       <c r="AH12" t="n">
-        <v>1277720.89929124</v>
+        <v>1506591.50952888</v>
       </c>
     </row>
     <row r="13">
@@ -40471,28 +40471,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1018.051358399429</v>
+        <v>1193.305276672707</v>
       </c>
       <c r="AB13" t="n">
-        <v>1392.942781818213</v>
+        <v>1632.732924456913</v>
       </c>
       <c r="AC13" t="n">
-        <v>1260.002277728955</v>
+        <v>1476.907185701797</v>
       </c>
       <c r="AD13" t="n">
-        <v>1018051.358399429</v>
+        <v>1193305.276672707</v>
       </c>
       <c r="AE13" t="n">
-        <v>1392942.781818213</v>
+        <v>1632732.924456913</v>
       </c>
       <c r="AF13" t="n">
         <v>4.603264999021844e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>36</v>
+        <v>35.57291666666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>1260002.277728955</v>
+        <v>1476907.185701797</v>
       </c>
     </row>
     <row r="14">
@@ -40577,28 +40577,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1003.424071185809</v>
+        <v>1178.576504232602</v>
       </c>
       <c r="AB14" t="n">
-        <v>1372.929082142169</v>
+        <v>1612.580368216781</v>
       </c>
       <c r="AC14" t="n">
-        <v>1241.898657460589</v>
+        <v>1458.677961144932</v>
       </c>
       <c r="AD14" t="n">
-        <v>1003424.071185809</v>
+        <v>1178576.504232602</v>
       </c>
       <c r="AE14" t="n">
-        <v>1372929.082142169</v>
+        <v>1612580.368216781</v>
       </c>
       <c r="AF14" t="n">
         <v>4.621627750110839e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>36</v>
+        <v>35.43619791666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>1241898.657460589</v>
+        <v>1458677.961144932</v>
       </c>
     </row>
     <row r="15">
@@ -40683,28 +40683,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>994.0117064682726</v>
+        <v>1169.164139515066</v>
       </c>
       <c r="AB15" t="n">
-        <v>1360.050669491412</v>
+        <v>1599.701955566024</v>
       </c>
       <c r="AC15" t="n">
-        <v>1230.249342438254</v>
+        <v>1447.028646122597</v>
       </c>
       <c r="AD15" t="n">
-        <v>994011.7064682726</v>
+        <v>1169164.139515066</v>
       </c>
       <c r="AE15" t="n">
-        <v>1360050.669491412</v>
+        <v>1599701.955566023</v>
       </c>
       <c r="AF15" t="n">
         <v>4.632444165135861e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>36</v>
+        <v>35.3515625</v>
       </c>
       <c r="AH15" t="n">
-        <v>1230249.342438255</v>
+        <v>1447028.646122597</v>
       </c>
     </row>
     <row r="16">
@@ -40789,28 +40789,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>987.8348815984886</v>
+        <v>1162.987314645282</v>
       </c>
       <c r="AB16" t="n">
-        <v>1351.599265202292</v>
+        <v>1591.250551276904</v>
       </c>
       <c r="AC16" t="n">
-        <v>1222.604528312868</v>
+        <v>1439.383831997211</v>
       </c>
       <c r="AD16" t="n">
-        <v>987834.8815984885</v>
+        <v>1162987.314645282</v>
       </c>
       <c r="AE16" t="n">
-        <v>1351599.265202292</v>
+        <v>1591250.551276904</v>
       </c>
       <c r="AF16" t="n">
         <v>4.644015213767284e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>36</v>
+        <v>35.26692708333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>1222604.528312868</v>
+        <v>1439383.831997211</v>
       </c>
     </row>
     <row r="17">
@@ -40895,28 +40895,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>990.2004242770312</v>
+        <v>1165.352857323825</v>
       </c>
       <c r="AB17" t="n">
-        <v>1354.835905055452</v>
+        <v>1594.487191130064</v>
       </c>
       <c r="AC17" t="n">
-        <v>1225.532267801095</v>
+        <v>1442.311571485438</v>
       </c>
       <c r="AD17" t="n">
-        <v>990200.4242770312</v>
+        <v>1165352.857323824</v>
       </c>
       <c r="AE17" t="n">
-        <v>1354835.905055452</v>
+        <v>1594487.191130064</v>
       </c>
       <c r="AF17" t="n">
         <v>4.643260580160886e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>36</v>
+        <v>35.26692708333334</v>
       </c>
       <c r="AH17" t="n">
-        <v>1225532.267801095</v>
+        <v>1442311.571485438</v>
       </c>
     </row>
     <row r="18">
@@ -41001,28 +41001,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>993.0895945439033</v>
+        <v>1168.242027590697</v>
       </c>
       <c r="AB18" t="n">
-        <v>1358.788995275783</v>
+        <v>1598.440281350395</v>
       </c>
       <c r="AC18" t="n">
-        <v>1229.108080638994</v>
+        <v>1445.887384323337</v>
       </c>
       <c r="AD18" t="n">
-        <v>993089.5945439034</v>
+        <v>1168242.027590697</v>
       </c>
       <c r="AE18" t="n">
-        <v>1358788.995275783</v>
+        <v>1598440.281350395</v>
       </c>
       <c r="AF18" t="n">
         <v>4.643260580160886e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>36</v>
+        <v>35.26692708333334</v>
       </c>
       <c r="AH18" t="n">
-        <v>1229108.080638994</v>
+        <v>1445887.384323337</v>
       </c>
     </row>
   </sheetData>
@@ -41298,28 +41298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>657.5401068964782</v>
+        <v>847.1289979901775</v>
       </c>
       <c r="AB2" t="n">
-        <v>899.6753828779526</v>
+        <v>1159.079267743921</v>
       </c>
       <c r="AC2" t="n">
-        <v>813.8116270384106</v>
+        <v>1048.45836920841</v>
       </c>
       <c r="AD2" t="n">
-        <v>657540.1068964782</v>
+        <v>847128.9979901775</v>
       </c>
       <c r="AE2" t="n">
-        <v>899675.3828779527</v>
+        <v>1159079.267743921</v>
       </c>
       <c r="AF2" t="n">
         <v>9.720464908402059e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.87239583333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>813811.6270384106</v>
+        <v>1048458.369208409</v>
       </c>
     </row>
   </sheetData>
@@ -41595,28 +41595,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1425.421153689851</v>
+        <v>1670.873627225667</v>
       </c>
       <c r="AB2" t="n">
-        <v>1950.324107621544</v>
+        <v>2286.163010512136</v>
       </c>
       <c r="AC2" t="n">
-        <v>1764.18791208722</v>
+        <v>2067.974821438795</v>
       </c>
       <c r="AD2" t="n">
-        <v>1425421.153689851</v>
+        <v>1670873.627225667</v>
       </c>
       <c r="AE2" t="n">
-        <v>1950324.107621544</v>
+        <v>2286163.010512136</v>
       </c>
       <c r="AF2" t="n">
         <v>4.348601109145689e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>50</v>
+        <v>49.8046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1764187.91208722</v>
+        <v>2067974.821438794</v>
       </c>
     </row>
     <row r="3">
@@ -41701,28 +41701,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1026.696910261662</v>
+        <v>1215.491747664248</v>
       </c>
       <c r="AB3" t="n">
-        <v>1404.772007290949</v>
+        <v>1663.08943286556</v>
       </c>
       <c r="AC3" t="n">
-        <v>1270.702538524996</v>
+        <v>1504.366511553549</v>
       </c>
       <c r="AD3" t="n">
-        <v>1026696.910261662</v>
+        <v>1215491.747664248</v>
       </c>
       <c r="AE3" t="n">
-        <v>1404772.007290949</v>
+        <v>1663089.43286556</v>
       </c>
       <c r="AF3" t="n">
         <v>5.391586686161353e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>41</v>
+        <v>40.17578125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1270702.538524996</v>
+        <v>1504366.511553549</v>
       </c>
     </row>
     <row r="4">
@@ -41807,28 +41807,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>913.9693366374706</v>
+        <v>1093.388385987247</v>
       </c>
       <c r="AB4" t="n">
-        <v>1250.533167868773</v>
+        <v>1496.022226598952</v>
       </c>
       <c r="AC4" t="n">
-        <v>1131.184037461701</v>
+        <v>1353.24396497273</v>
       </c>
       <c r="AD4" t="n">
-        <v>913969.3366374706</v>
+        <v>1093388.385987247</v>
       </c>
       <c r="AE4" t="n">
-        <v>1250533.167868773</v>
+        <v>1496022.226598952</v>
       </c>
       <c r="AF4" t="n">
         <v>5.75821191929413e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>38</v>
+        <v>37.6171875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1131184.037461701</v>
+        <v>1353243.96497273</v>
       </c>
     </row>
     <row r="5">
@@ -41913,28 +41913,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>856.918761903501</v>
+        <v>1036.202160608011</v>
       </c>
       <c r="AB5" t="n">
-        <v>1172.474054624032</v>
+        <v>1417.777510156874</v>
       </c>
       <c r="AC5" t="n">
-        <v>1060.574776428384</v>
+        <v>1282.466814450734</v>
       </c>
       <c r="AD5" t="n">
-        <v>856918.761903501</v>
+        <v>1036202.160608011</v>
       </c>
       <c r="AE5" t="n">
-        <v>1172474.054624032</v>
+        <v>1417777.510156874</v>
       </c>
       <c r="AF5" t="n">
         <v>5.950507186763047e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>37</v>
+        <v>36.39973958333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1060574.776428384</v>
+        <v>1282466.814450734</v>
       </c>
     </row>
     <row r="6">
@@ -42019,28 +42019,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>816.2497331779385</v>
+        <v>995.600451690153</v>
       </c>
       <c r="AB6" t="n">
-        <v>1116.828895330798</v>
+        <v>1362.224460794482</v>
       </c>
       <c r="AC6" t="n">
-        <v>1010.240313039625</v>
+        <v>1232.215670150294</v>
       </c>
       <c r="AD6" t="n">
-        <v>816249.7331779385</v>
+        <v>995600.451690153</v>
       </c>
       <c r="AE6" t="n">
-        <v>1116828.895330798</v>
+        <v>1362224.460794481</v>
       </c>
       <c r="AF6" t="n">
         <v>6.046987511271673e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>36</v>
+        <v>35.8203125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1010240.313039625</v>
+        <v>1232215.670150294</v>
       </c>
     </row>
     <row r="7">
@@ -42125,28 +42125,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>813.1151886833975</v>
+        <v>992.4659071956119</v>
       </c>
       <c r="AB7" t="n">
-        <v>1112.540073267023</v>
+        <v>1357.935638730707</v>
       </c>
       <c r="AC7" t="n">
-        <v>1006.360810134217</v>
+        <v>1228.336167244887</v>
       </c>
       <c r="AD7" t="n">
-        <v>813115.1886833975</v>
+        <v>992465.9071956119</v>
       </c>
       <c r="AE7" t="n">
-        <v>1112540.073267023</v>
+        <v>1357935.638730707</v>
       </c>
       <c r="AF7" t="n">
         <v>6.063622049980057e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>36</v>
+        <v>35.72265625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1006360.810134217</v>
+        <v>1228336.167244887</v>
       </c>
     </row>
   </sheetData>
@@ -42422,28 +42422,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1854.778422815082</v>
+        <v>2131.803582502064</v>
       </c>
       <c r="AB2" t="n">
-        <v>2537.789665144546</v>
+        <v>2916.827710115771</v>
       </c>
       <c r="AC2" t="n">
-        <v>2295.586581313316</v>
+        <v>2638.449767255724</v>
       </c>
       <c r="AD2" t="n">
-        <v>1854778.422815082</v>
+        <v>2131803.582502064</v>
       </c>
       <c r="AE2" t="n">
-        <v>2537789.665144546</v>
+        <v>2916827.710115771</v>
       </c>
       <c r="AF2" t="n">
         <v>3.45031338921909e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>56</v>
+        <v>55.8984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>2295586.581313316</v>
+        <v>2638449.767255724</v>
       </c>
     </row>
     <row r="3">
@@ -42528,28 +42528,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1220.703719835385</v>
+        <v>1430.776924070808</v>
       </c>
       <c r="AB3" t="n">
-        <v>1670.220683126094</v>
+        <v>1957.652108936682</v>
       </c>
       <c r="AC3" t="n">
-        <v>1510.817165297991</v>
+        <v>1770.816539241756</v>
       </c>
       <c r="AD3" t="n">
-        <v>1220703.719835385</v>
+        <v>1430776.924070808</v>
       </c>
       <c r="AE3" t="n">
-        <v>1670220.683126094</v>
+        <v>1957652.108936682</v>
       </c>
       <c r="AF3" t="n">
         <v>4.544625886838676e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>43</v>
+        <v>42.44140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1510817.165297991</v>
+        <v>1770816.539241756</v>
       </c>
     </row>
     <row r="4">
@@ -42634,28 +42634,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1075.798128336878</v>
+        <v>1266.795602092837</v>
       </c>
       <c r="AB4" t="n">
-        <v>1471.954460054319</v>
+        <v>1733.285629861071</v>
       </c>
       <c r="AC4" t="n">
-        <v>1331.473192287794</v>
+        <v>1567.86328202879</v>
       </c>
       <c r="AD4" t="n">
-        <v>1075798.128336878</v>
+        <v>1266795.602092837</v>
       </c>
       <c r="AE4" t="n">
-        <v>1471954.460054319</v>
+        <v>1733285.629861071</v>
       </c>
       <c r="AF4" t="n">
         <v>4.935070898171272e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>40</v>
+        <v>39.08203125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1331473.192287794</v>
+        <v>1567863.28202879</v>
       </c>
     </row>
     <row r="5">
@@ -42740,28 +42740,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>997.7942445978557</v>
+        <v>1179.236770404692</v>
       </c>
       <c r="AB5" t="n">
-        <v>1365.226105034113</v>
+        <v>1613.483773522323</v>
       </c>
       <c r="AC5" t="n">
-        <v>1234.930841676529</v>
+        <v>1459.49514671605</v>
       </c>
       <c r="AD5" t="n">
-        <v>997794.2445978557</v>
+        <v>1179236.770404692</v>
       </c>
       <c r="AE5" t="n">
-        <v>1365226.105034113</v>
+        <v>1613483.773522323</v>
       </c>
       <c r="AF5" t="n">
         <v>5.14332798691696e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>38</v>
+        <v>37.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>1234930.841676529</v>
+        <v>1459495.14671605</v>
       </c>
     </row>
     <row r="6">
@@ -42846,28 +42846,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>952.4474726217594</v>
+        <v>1133.9573182363</v>
       </c>
       <c r="AB6" t="n">
-        <v>1303.18065105803</v>
+        <v>1551.530429477082</v>
       </c>
       <c r="AC6" t="n">
-        <v>1178.806918746582</v>
+        <v>1403.454542874423</v>
       </c>
       <c r="AD6" t="n">
-        <v>952447.4726217594</v>
+        <v>1133957.3182363</v>
       </c>
       <c r="AE6" t="n">
-        <v>1303180.65105803</v>
+        <v>1551530.429477082</v>
       </c>
       <c r="AF6" t="n">
         <v>5.2591580320088e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>37</v>
+        <v>36.67317708333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1178806.918746582</v>
+        <v>1403454.542874423</v>
       </c>
     </row>
     <row r="7">
@@ -42952,28 +42952,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>923.2956541660786</v>
+        <v>1095.217397442574</v>
       </c>
       <c r="AB7" t="n">
-        <v>1263.293846959505</v>
+        <v>1498.524760762421</v>
       </c>
       <c r="AC7" t="n">
-        <v>1142.726855249739</v>
+        <v>1355.507660787966</v>
       </c>
       <c r="AD7" t="n">
-        <v>923295.6541660787</v>
+        <v>1095217.397442574</v>
       </c>
       <c r="AE7" t="n">
-        <v>1263293.846959505</v>
+        <v>1498524.760762421</v>
       </c>
       <c r="AF7" t="n">
         <v>5.344771543598421e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>37</v>
+        <v>36.08723958333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1142726.855249739</v>
+        <v>1355507.660787966</v>
       </c>
     </row>
     <row r="8">
@@ -43058,28 +43058,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>888.8363233601364</v>
+        <v>1070.312003555896</v>
       </c>
       <c r="AB8" t="n">
-        <v>1216.145070312433</v>
+        <v>1464.448102098237</v>
       </c>
       <c r="AC8" t="n">
-        <v>1100.07789167214</v>
+        <v>1324.6832305998</v>
       </c>
       <c r="AD8" t="n">
-        <v>888836.3233601364</v>
+        <v>1070312.003555896</v>
       </c>
       <c r="AE8" t="n">
-        <v>1216145.070312433</v>
+        <v>1464448.102098237</v>
       </c>
       <c r="AF8" t="n">
         <v>5.406389572700985e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>36</v>
+        <v>35.67057291666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1100077.89167214</v>
+        <v>1324683.230599801</v>
       </c>
     </row>
     <row r="9">
@@ -43164,28 +43164,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>875.3847654154988</v>
+        <v>1047.272343273213</v>
       </c>
       <c r="AB9" t="n">
-        <v>1197.740055291726</v>
+        <v>1432.924222461394</v>
       </c>
       <c r="AC9" t="n">
-        <v>1083.429425453409</v>
+        <v>1296.167945791455</v>
       </c>
       <c r="AD9" t="n">
-        <v>875384.7654154988</v>
+        <v>1047272.343273213</v>
       </c>
       <c r="AE9" t="n">
-        <v>1197740.055291726</v>
+        <v>1432924.222461394</v>
       </c>
       <c r="AF9" t="n">
         <v>5.436309865678674e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>36</v>
+        <v>35.47526041666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>1083429.425453409</v>
+        <v>1296167.945791455</v>
       </c>
     </row>
     <row r="10">
@@ -43270,28 +43270,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>874.8172406151054</v>
+        <v>1046.70481847282</v>
       </c>
       <c r="AB10" t="n">
-        <v>1196.963542822401</v>
+        <v>1432.147709992069</v>
       </c>
       <c r="AC10" t="n">
-        <v>1082.727022244314</v>
+        <v>1295.465542582361</v>
       </c>
       <c r="AD10" t="n">
-        <v>874817.2406151055</v>
+        <v>1046704.81847282</v>
       </c>
       <c r="AE10" t="n">
-        <v>1196963.542822401</v>
+        <v>1432147.709992069</v>
       </c>
       <c r="AF10" t="n">
         <v>5.441938435644773e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>36</v>
+        <v>35.44270833333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1082727.022244314</v>
+        <v>1295465.542582361</v>
       </c>
     </row>
   </sheetData>
